--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E039A8EA77144B65EE399E4A4092EB941D50A962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB98EE54-333C-4822-8C06-43BDA4D2BD0A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="27">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -104,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -246,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -280,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,14 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -691,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -726,14 +747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -758,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -772,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -786,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -800,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -814,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -828,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -842,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -862,14 +883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -883,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -900,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -917,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -934,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -951,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -968,7 +989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -985,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1025,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1326,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1364,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1449,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1466,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E039A8EA77144B65EE399E4A4092EB941D50A962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB98EE54-333C-4822-8C06-43BDA4D2BD0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -101,7 +95,7 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
-    <t>Louie Power Index</t>
+    <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
@@ -110,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,21 +168,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +212,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,10 +280,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,19 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -683,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -747,14 +726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -765,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -779,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -793,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -807,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -821,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -835,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -849,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -863,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -883,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -904,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -921,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -938,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -955,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -972,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -989,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1006,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1023,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1046,14 +1025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1347,14 +1326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1385,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1402,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1419,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1436,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1453,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1470,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1487,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1034,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1423,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -44,10 +44,13 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -99,6 +102,27 @@
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
 </sst>
 </file>
@@ -496,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -522,25 +546,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -554,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -566,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -580,28 +604,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -615,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -667,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -682,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -696,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -711,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -735,13 +759,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -752,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -763,13 +787,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -777,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -791,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -805,13 +829,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.625</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -819,10 +843,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -833,13 +857,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -850,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -871,16 +895,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -891,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -905,13 +929,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -922,16 +946,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>-0.625</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -939,16 +963,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="D5">
-        <v>-0.375</v>
+        <v>1.25</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -956,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1.125</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.875</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -976,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -990,16 +1014,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1007,16 +1031,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1034,34 +1058,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1098,7 +1122,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1130,7 +1154,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1162,7 +1186,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1194,7 +1218,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1258,7 +1282,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1290,7 +1314,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1335,16 +1359,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1352,16 +1376,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1369,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1386,16 +1410,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1403,16 +1427,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1420,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1440,13 +1464,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1454,16 +1478,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1471,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -44,13 +44,16 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -107,22 +110,25 @@
     <t>↑4</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -535,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -555,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -564,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -578,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -593,10 +599,10 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -613,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -622,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -636,13 +642,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -651,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -665,25 +671,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -720,28 +726,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -759,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -776,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -787,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -801,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -815,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -829,13 +835,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -843,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -860,10 +866,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1.25</v>
+        <v>2.125</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -874,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -895,16 +901,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -915,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>-0.125</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -932,13 +938,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -946,16 +952,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1.375</v>
+        <v>2.125</v>
       </c>
       <c r="D4">
-        <v>-0.625</v>
+        <v>-0.875</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -966,13 +972,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.875</v>
       </c>
       <c r="D5">
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -980,13 +986,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="D6">
-        <v>-0.875</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1000,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1014,16 +1020,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0.375</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>-0.625</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1031,13 +1037,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1058,34 +1064,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1154,7 +1160,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1359,16 +1365,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1376,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1393,16 +1399,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1410,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1430,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1444,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1464,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1478,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1498,13 +1504,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1064,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -1099,22 +1099,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>62.97000000000001</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>25.01</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1131,31 +1131,31 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>19.27</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>31.06</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>27.61</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.27</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1163,31 +1163,31 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>26.74</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>28.21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>99.92999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1195,31 +1195,31 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>27.09</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35.24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.02</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1227,31 +1227,31 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>17.83</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>31.78</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>29.16</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>98.46000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14.47</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>46.62</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1297,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>26.89</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>43.03</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.64</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1332,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>27.29</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>66.97999999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1064,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -1099,22 +1099,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>62.97000000000001</v>
+        <v>62.21</v>
       </c>
       <c r="C2">
-        <v>25.01</v>
+        <v>25.65</v>
       </c>
       <c r="D2">
-        <v>9.529999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E2">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="F2">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1131,31 +1131,31 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>19.27</v>
+        <v>21.56</v>
       </c>
       <c r="C3">
-        <v>31.06</v>
+        <v>29.39</v>
       </c>
       <c r="D3">
-        <v>27.61</v>
+        <v>27.23</v>
       </c>
       <c r="E3">
-        <v>15.27</v>
+        <v>14.45</v>
       </c>
       <c r="F3">
-        <v>6.23</v>
+        <v>6.79</v>
       </c>
       <c r="G3">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>99.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1163,95 +1163,95 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>14.02</v>
+        <v>12.45</v>
       </c>
       <c r="C4">
-        <v>26.74</v>
+        <v>27.35</v>
       </c>
       <c r="D4">
-        <v>28.21</v>
+        <v>27.59</v>
       </c>
       <c r="E4">
-        <v>18.97</v>
+        <v>20.14</v>
       </c>
       <c r="F4">
-        <v>10.55</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H4">
-        <v>0.06</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>99.92999999999999</v>
+        <v>99.92999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="C5">
-        <v>8.110000000000001</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="D5">
-        <v>16.08</v>
+        <v>18.18</v>
       </c>
       <c r="E5">
-        <v>27.09</v>
+        <v>31.12</v>
       </c>
       <c r="F5">
-        <v>35.24</v>
+        <v>28.79</v>
       </c>
       <c r="G5">
-        <v>10.02</v>
+        <v>9.34</v>
       </c>
       <c r="H5">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="I5">
         <v>0.06999999999999999</v>
       </c>
       <c r="J5">
-        <v>98.45</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1.82</v>
       </c>
       <c r="C6">
-        <v>8.93</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="D6">
-        <v>17.83</v>
+        <v>16.73</v>
       </c>
       <c r="E6">
-        <v>31.78</v>
+        <v>27.04</v>
       </c>
       <c r="F6">
-        <v>29.16</v>
+        <v>34.45</v>
       </c>
       <c r="G6">
-        <v>8.94</v>
+        <v>9.74</v>
       </c>
       <c r="H6">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I6">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J6">
-        <v>98.46000000000001</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1259,31 +1259,31 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E7">
-        <v>4.18</v>
+        <v>4.3</v>
       </c>
       <c r="F7">
-        <v>14.47</v>
+        <v>14.68</v>
       </c>
       <c r="G7">
-        <v>46.62</v>
+        <v>46.61</v>
       </c>
       <c r="H7">
-        <v>26.7</v>
+        <v>26.02</v>
       </c>
       <c r="I7">
-        <v>7.17</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="J7">
-        <v>66.13</v>
+        <v>66.55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1297,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E8">
         <v>0.5700000000000001</v>
       </c>
       <c r="F8">
-        <v>3.83</v>
+        <v>3.73</v>
       </c>
       <c r="G8">
-        <v>26.89</v>
+        <v>27.48</v>
       </c>
       <c r="H8">
-        <v>43.03</v>
+        <v>44.05</v>
       </c>
       <c r="I8">
-        <v>25.64</v>
+        <v>24.14</v>
       </c>
       <c r="J8">
-        <v>31.33</v>
+        <v>31.81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1332,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>5.54</v>
+        <v>4.94</v>
       </c>
       <c r="H9">
-        <v>27.29</v>
+        <v>26.71</v>
       </c>
       <c r="I9">
-        <v>66.97999999999999</v>
+        <v>68.25</v>
       </c>
       <c r="J9">
-        <v>5.73</v>
+        <v>5.039999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="38">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -44,16 +45,19 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -107,28 +111,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -526,16 +530,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -544,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -555,25 +559,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -587,22 +591,22 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -610,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -642,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -657,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -671,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -683,13 +687,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -697,13 +701,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -712,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -729,13 +733,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -744,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +769,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -782,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -793,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -807,13 +811,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.25</v>
+        <v>1.875</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -821,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -835,13 +839,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -849,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.625</v>
+        <v>2.25</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -863,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.125</v>
+        <v>2.375</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -877,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -901,16 +905,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -921,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -938,13 +942,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>-0.625</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -952,16 +956,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.125</v>
+        <v>2.875</v>
       </c>
       <c r="D4">
-        <v>-0.875</v>
+        <v>0.875</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -969,16 +973,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.875</v>
+        <v>2.625</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>-0.375</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -986,13 +990,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1003,16 +1007,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0.625</v>
       </c>
       <c r="D7">
-        <v>0.625</v>
+        <v>-0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1020,16 +1024,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="D8">
-        <v>-0.625</v>
+        <v>0.625</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1040,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1064,34 +1068,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1099,22 +1103,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>62.21</v>
+        <v>45.91</v>
       </c>
       <c r="C2">
-        <v>25.65</v>
+        <v>29.38</v>
       </c>
       <c r="D2">
-        <v>9.390000000000001</v>
+        <v>15.61</v>
       </c>
       <c r="E2">
-        <v>2.38</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="F2">
-        <v>0.36</v>
+        <v>2.15</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1128,130 +1132,130 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21.56</v>
+        <v>26.04</v>
       </c>
       <c r="C3">
-        <v>29.39</v>
+        <v>26.32</v>
       </c>
       <c r="D3">
-        <v>27.23</v>
+        <v>23.04</v>
       </c>
       <c r="E3">
-        <v>14.45</v>
+        <v>15.97</v>
       </c>
       <c r="F3">
-        <v>6.79</v>
+        <v>8.15</v>
       </c>
       <c r="G3">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.95000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>12.45</v>
+        <v>16.89</v>
       </c>
       <c r="C4">
-        <v>27.35</v>
+        <v>22.13</v>
       </c>
       <c r="D4">
-        <v>27.59</v>
+        <v>23.31</v>
       </c>
       <c r="E4">
-        <v>20.14</v>
+        <v>21.2</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>14.97</v>
       </c>
       <c r="G4">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H4">
-        <v>0.06999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J4">
-        <v>99.92999999999998</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.96</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="C5">
-        <v>8.790000000000001</v>
+        <v>13.31</v>
       </c>
       <c r="D5">
-        <v>18.18</v>
+        <v>20.35</v>
       </c>
       <c r="E5">
-        <v>31.12</v>
+        <v>26.37</v>
       </c>
       <c r="F5">
-        <v>28.79</v>
+        <v>27.14</v>
       </c>
       <c r="G5">
-        <v>9.34</v>
+        <v>4.61</v>
       </c>
       <c r="H5">
-        <v>1.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I5">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>98.18000000000001</v>
+        <v>99.20999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.82</v>
+        <v>3.73</v>
       </c>
       <c r="C6">
-        <v>8.709999999999999</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="D6">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
       <c r="E6">
-        <v>27.04</v>
+        <v>26.94</v>
       </c>
       <c r="F6">
-        <v>34.45</v>
+        <v>33.43</v>
       </c>
       <c r="G6">
-        <v>9.74</v>
+        <v>7.53</v>
       </c>
       <c r="H6">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="I6">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="J6">
-        <v>98.48999999999999</v>
+        <v>97.66999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1262,28 +1266,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D7">
-        <v>0.8500000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="E7">
-        <v>4.3</v>
+        <v>1.78</v>
       </c>
       <c r="F7">
-        <v>14.68</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="G7">
-        <v>46.61</v>
+        <v>36.34</v>
       </c>
       <c r="H7">
-        <v>26.02</v>
+        <v>29.21</v>
       </c>
       <c r="I7">
-        <v>7.430000000000001</v>
+        <v>24.11</v>
       </c>
       <c r="J7">
-        <v>66.55</v>
+        <v>46.68000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1297,25 +1301,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E8">
-        <v>0.5700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
-        <v>3.73</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G8">
-        <v>27.48</v>
+        <v>30.58</v>
       </c>
       <c r="H8">
-        <v>44.05</v>
+        <v>37.73</v>
       </c>
       <c r="I8">
-        <v>24.14</v>
+        <v>26.91</v>
       </c>
       <c r="J8">
-        <v>31.81</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1332,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>1.93</v>
       </c>
       <c r="G9">
-        <v>4.94</v>
+        <v>19.09</v>
       </c>
       <c r="H9">
-        <v>26.71</v>
+        <v>30.38</v>
       </c>
       <c r="I9">
-        <v>68.25</v>
+        <v>48.31</v>
       </c>
       <c r="J9">
-        <v>5.039999999999999</v>
+        <v>21.31</v>
       </c>
     </row>
   </sheetData>
@@ -1365,16 +1369,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1382,16 +1386,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1399,16 +1403,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1416,13 +1420,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1442,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1453,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1470,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1487,13 +1491,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1504,13 +1508,203 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-15</v>
+      </c>
+      <c r="E8">
+        <v>-18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-14</v>
+      </c>
+      <c r="D9">
+        <v>-21</v>
+      </c>
+      <c r="E9">
+        <v>-24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -1103,22 +1103,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>45.91</v>
+        <v>47.22</v>
       </c>
       <c r="C2">
-        <v>29.38</v>
+        <v>28.07</v>
       </c>
       <c r="D2">
-        <v>15.61</v>
+        <v>15.49</v>
       </c>
       <c r="E2">
-        <v>6.850000000000001</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="F2">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1135,31 +1135,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.04</v>
+        <v>25.55</v>
       </c>
       <c r="C3">
-        <v>26.32</v>
+        <v>26.86</v>
       </c>
       <c r="D3">
-        <v>23.04</v>
+        <v>23.46</v>
       </c>
       <c r="E3">
-        <v>15.97</v>
+        <v>15.68</v>
       </c>
       <c r="F3">
-        <v>8.15</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>99.95000000000002</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1167,31 +1167,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16.89</v>
+        <v>16.7</v>
       </c>
       <c r="C4">
-        <v>22.13</v>
+        <v>21.85</v>
       </c>
       <c r="D4">
-        <v>23.31</v>
+        <v>23.8</v>
       </c>
       <c r="E4">
-        <v>21.2</v>
+        <v>20.94</v>
       </c>
       <c r="F4">
         <v>14.97</v>
       </c>
       <c r="G4">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J4">
-        <v>99.81999999999999</v>
+        <v>99.77999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1199,31 +1199,31 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.430000000000001</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="C5">
-        <v>13.31</v>
+        <v>13.91</v>
       </c>
       <c r="D5">
-        <v>20.35</v>
+        <v>20.3</v>
       </c>
       <c r="E5">
-        <v>26.37</v>
+        <v>26.42</v>
       </c>
       <c r="F5">
-        <v>27.14</v>
+        <v>27.56</v>
       </c>
       <c r="G5">
-        <v>4.61</v>
+        <v>4.569999999999999</v>
       </c>
       <c r="H5">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J5">
-        <v>99.20999999999999</v>
+        <v>99.27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1231,31 +1231,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.73</v>
+        <v>4.01</v>
       </c>
       <c r="C6">
-        <v>8.799999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="D6">
-        <v>17.24</v>
+        <v>16.55</v>
       </c>
       <c r="E6">
-        <v>26.94</v>
+        <v>27.16</v>
       </c>
       <c r="F6">
-        <v>33.43</v>
+        <v>33.17</v>
       </c>
       <c r="G6">
-        <v>7.53</v>
+        <v>7.59</v>
       </c>
       <c r="H6">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="I6">
-        <v>0.54</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="J6">
-        <v>97.66999999999999</v>
+        <v>97.74000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1263,31 +1263,31 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D7">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="F7">
-        <v>8.129999999999999</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="G7">
-        <v>36.34</v>
+        <v>35.82</v>
       </c>
       <c r="H7">
-        <v>29.21</v>
+        <v>29.48</v>
       </c>
       <c r="I7">
-        <v>24.11</v>
+        <v>24.23</v>
       </c>
       <c r="J7">
-        <v>46.68000000000001</v>
+        <v>46.29000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1298,28 +1298,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F8">
-        <v>4.100000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="G8">
-        <v>30.58</v>
+        <v>31.27</v>
       </c>
       <c r="H8">
-        <v>37.73</v>
+        <v>37.55</v>
       </c>
       <c r="I8">
-        <v>26.91</v>
+        <v>26.9</v>
       </c>
       <c r="J8">
-        <v>35.36</v>
+        <v>35.55</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="F9">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="G9">
-        <v>19.09</v>
+        <v>18.74</v>
       </c>
       <c r="H9">
-        <v>30.38</v>
+        <v>30.47</v>
       </c>
       <c r="I9">
-        <v>48.31</v>
+        <v>48.16</v>
       </c>
       <c r="J9">
-        <v>21.31</v>
+        <v>21.37</v>
       </c>
     </row>
   </sheetData>
@@ -1524,186 +1524,213 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>12</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-9</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-4</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
         <v>-4</v>
       </c>
       <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
         <v>-15</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-21</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="44">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -45,19 +45,22 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -111,16 +114,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -133,6 +148,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -530,16 +548,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -548,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -559,25 +577,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -585,28 +603,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -614,28 +632,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -652,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -661,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -672,28 +690,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -701,28 +719,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -730,28 +748,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -769,13 +787,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -783,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -797,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -811,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -828,10 +846,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -842,10 +860,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -867,13 +885,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -881,13 +899,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -905,16 +923,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -922,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -939,16 +957,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -959,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.875</v>
+        <v>3.375</v>
       </c>
       <c r="D4">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -973,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="D5">
-        <v>-0.375</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -990,13 +1008,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1010,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.625</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>-0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1024,16 +1042,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0.625</v>
-      </c>
       <c r="D8">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1041,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1068,226 +1086,226 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>47.22</v>
+        <v>25.75</v>
       </c>
       <c r="C2">
-        <v>28.07</v>
+        <v>22.55</v>
       </c>
       <c r="D2">
-        <v>15.49</v>
+        <v>19.96</v>
       </c>
       <c r="E2">
-        <v>7.090000000000001</v>
+        <v>16.91</v>
       </c>
       <c r="F2">
-        <v>2.09</v>
+        <v>11.77</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>2.58</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>99.51999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>25.55</v>
+        <v>21.84</v>
       </c>
       <c r="C3">
-        <v>26.86</v>
+        <v>20.41</v>
       </c>
       <c r="D3">
-        <v>23.46</v>
+        <v>18.89</v>
       </c>
       <c r="E3">
-        <v>15.68</v>
+        <v>17.3</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="G3">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>16.7</v>
+        <v>18.6</v>
       </c>
       <c r="C4">
-        <v>21.85</v>
+        <v>20.2</v>
       </c>
       <c r="D4">
-        <v>23.8</v>
+        <v>19.83</v>
       </c>
       <c r="E4">
-        <v>20.94</v>
+        <v>19.3</v>
       </c>
       <c r="F4">
-        <v>14.97</v>
+        <v>15.95</v>
       </c>
       <c r="G4">
-        <v>1.52</v>
+        <v>5.01</v>
       </c>
       <c r="H4">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="I4">
         <v>0.18</v>
       </c>
-      <c r="I4">
-        <v>0.04</v>
-      </c>
       <c r="J4">
-        <v>99.77999999999999</v>
+        <v>98.89000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>6.510000000000001</v>
+        <v>18.41</v>
       </c>
       <c r="C5">
-        <v>13.91</v>
+        <v>19.68</v>
       </c>
       <c r="D5">
-        <v>20.3</v>
+        <v>20.81</v>
       </c>
       <c r="E5">
-        <v>26.42</v>
+        <v>20.18</v>
       </c>
       <c r="F5">
-        <v>27.56</v>
+        <v>16.33</v>
       </c>
       <c r="G5">
-        <v>4.569999999999999</v>
+        <v>3.66</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="I5">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>99.27</v>
+        <v>99.07000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>4.01</v>
+        <v>15.27</v>
       </c>
       <c r="C6">
-        <v>9.26</v>
+        <v>16.5</v>
       </c>
       <c r="D6">
-        <v>16.55</v>
+        <v>18.09</v>
       </c>
       <c r="E6">
-        <v>27.16</v>
+        <v>19.73</v>
       </c>
       <c r="F6">
-        <v>33.17</v>
+        <v>19.7</v>
       </c>
       <c r="G6">
-        <v>7.59</v>
+        <v>7.7</v>
       </c>
       <c r="H6">
-        <v>1.7</v>
+        <v>2.23</v>
       </c>
       <c r="I6">
-        <v>0.5599999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="J6">
-        <v>97.74000000000001</v>
+        <v>96.99000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>1.46</v>
       </c>
       <c r="E7">
-        <v>1.86</v>
+        <v>3.47</v>
       </c>
       <c r="F7">
-        <v>8.260000000000002</v>
+        <v>9.69</v>
       </c>
       <c r="G7">
-        <v>35.82</v>
+        <v>27.35</v>
       </c>
       <c r="H7">
-        <v>29.48</v>
+        <v>29.99</v>
       </c>
       <c r="I7">
-        <v>24.23</v>
+        <v>27.47</v>
       </c>
       <c r="J7">
-        <v>46.29000000000001</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1295,63 +1313,63 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E8">
-        <v>0.61</v>
+        <v>1.92</v>
       </c>
       <c r="F8">
-        <v>3.61</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="G8">
-        <v>31.27</v>
+        <v>26.01</v>
       </c>
       <c r="H8">
-        <v>37.55</v>
+        <v>31.69</v>
       </c>
       <c r="I8">
-        <v>26.9</v>
+        <v>32.72</v>
       </c>
       <c r="J8">
-        <v>35.55</v>
+        <v>35.59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="E9">
-        <v>0.24</v>
+        <v>1.19</v>
       </c>
       <c r="F9">
-        <v>2.34</v>
+        <v>4.24</v>
       </c>
       <c r="G9">
-        <v>18.74</v>
+        <v>23.17</v>
       </c>
       <c r="H9">
-        <v>30.47</v>
+        <v>32.72</v>
       </c>
       <c r="I9">
-        <v>48.16</v>
+        <v>38.34</v>
       </c>
       <c r="J9">
-        <v>21.37</v>
+        <v>28.94</v>
       </c>
     </row>
   </sheetData>
@@ -1369,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1386,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,16 +1421,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1420,16 +1438,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,16 +1455,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1454,16 +1472,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1477,10 +1495,10 @@
         <v>-12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1491,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1508,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1524,148 +1542,166 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>-2</v>
       </c>
       <c r="D5">
+        <v>-8</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-2</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>-2</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1684,11 +1720,14 @@
       <c r="F7">
         <v>-12</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1707,11 +1746,14 @@
       <c r="F8">
         <v>-18</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1730,8 +1772,11 @@
       <c r="F9">
         <v>-24</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
+      <c r="G9">
+        <v>-21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -1121,31 +1121,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>25.75</v>
+        <v>25.82</v>
       </c>
       <c r="C2">
-        <v>22.55</v>
+        <v>23.17</v>
       </c>
       <c r="D2">
-        <v>19.96</v>
+        <v>19.31</v>
       </c>
       <c r="E2">
-        <v>16.91</v>
+        <v>16.13</v>
       </c>
       <c r="F2">
-        <v>11.77</v>
+        <v>12.11</v>
       </c>
       <c r="G2">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="H2">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>99.51999999999998</v>
+        <v>99.27999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1153,31 +1153,31 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>21.84</v>
+        <v>21.29</v>
       </c>
       <c r="C3">
-        <v>20.41</v>
+        <v>19.3</v>
       </c>
       <c r="D3">
-        <v>18.89</v>
+        <v>19.85</v>
       </c>
       <c r="E3">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="F3">
-        <v>15.5</v>
+        <v>15.33</v>
       </c>
       <c r="G3">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="H3">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="I3">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="J3">
-        <v>98.45999999999999</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1185,31 +1185,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>18.6</v>
+        <v>19.72</v>
       </c>
       <c r="C4">
-        <v>20.2</v>
+        <v>19.78</v>
       </c>
       <c r="D4">
-        <v>19.83</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>19.3</v>
+        <v>18.74</v>
       </c>
       <c r="F4">
-        <v>15.95</v>
+        <v>16.56</v>
       </c>
       <c r="G4">
-        <v>5.01</v>
+        <v>4.37</v>
       </c>
       <c r="H4">
-        <v>0.9299999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="J4">
-        <v>98.89000000000001</v>
+        <v>98.27000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1217,31 +1217,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>18.41</v>
+        <v>17.88</v>
       </c>
       <c r="C5">
-        <v>19.68</v>
+        <v>20.41</v>
       </c>
       <c r="D5">
-        <v>20.81</v>
+        <v>20.83</v>
       </c>
       <c r="E5">
-        <v>20.18</v>
+        <v>20.23</v>
       </c>
       <c r="F5">
-        <v>16.33</v>
+        <v>16.35</v>
       </c>
       <c r="G5">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="H5">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="I5">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>99.07000000000001</v>
+        <v>99.28000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1249,31 +1249,31 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>15.27</v>
+        <v>14.98</v>
       </c>
       <c r="C6">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="D6">
-        <v>18.09</v>
+        <v>18.5</v>
       </c>
       <c r="E6">
-        <v>19.73</v>
+        <v>20.32</v>
       </c>
       <c r="F6">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="G6">
-        <v>7.7</v>
+        <v>7.79</v>
       </c>
       <c r="H6">
-        <v>2.23</v>
+        <v>2.84</v>
       </c>
       <c r="I6">
-        <v>0.7799999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="J6">
-        <v>96.99000000000001</v>
+        <v>96.51000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1281,31 +1281,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="C7">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="D7">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="E7">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="F7">
-        <v>9.69</v>
+        <v>10.08</v>
       </c>
       <c r="G7">
-        <v>27.35</v>
+        <v>27.69</v>
       </c>
       <c r="H7">
-        <v>29.99</v>
+        <v>28.46</v>
       </c>
       <c r="I7">
-        <v>27.47</v>
+        <v>27.75</v>
       </c>
       <c r="J7">
-        <v>42.54</v>
+        <v>43.79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1313,31 +1313,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C8">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D8">
-        <v>0.6799999999999999</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E8">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="F8">
-        <v>6.819999999999999</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="G8">
-        <v>26.01</v>
+        <v>26.45</v>
       </c>
       <c r="H8">
-        <v>31.69</v>
+        <v>31</v>
       </c>
       <c r="I8">
-        <v>32.72</v>
+        <v>32.73</v>
       </c>
       <c r="J8">
-        <v>35.59</v>
+        <v>36.27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1345,31 +1345,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D9">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="E9">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="F9">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="G9">
-        <v>23.17</v>
+        <v>22.8</v>
       </c>
       <c r="H9">
-        <v>32.72</v>
+        <v>33.86</v>
       </c>
       <c r="I9">
-        <v>38.34</v>
+        <v>37.99</v>
       </c>
       <c r="J9">
-        <v>28.94</v>
+        <v>28.15</v>
       </c>
     </row>
   </sheetData>
@@ -1542,240 +1542,213 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>-2</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>-2</v>
       </c>
       <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
         <v>-2</v>
       </c>
-      <c r="D5">
-        <v>-8</v>
-      </c>
       <c r="E5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
+      <c r="B6">
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
         <v>-2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7">
+        <v>-4</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E7">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F7">
         <v>-12</v>
       </c>
-      <c r="G7">
-        <v>-12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>-4</v>
       </c>
       <c r="C8">
         <v>-4</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="E8">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="F8">
-        <v>-18</v>
-      </c>
-      <c r="G8">
         <v>-16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="E9">
+        <v>-24</v>
+      </c>
+      <c r="F9">
         <v>-21</v>
       </c>
-      <c r="F9">
-        <v>-24</v>
-      </c>
-      <c r="G9">
-        <v>-21</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
     </row>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -45,22 +45,40 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -114,30 +132,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -151,6 +169,33 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -548,25 +593,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -577,25 +622,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -606,25 +651,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -635,25 +680,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -661,28 +706,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -690,28 +735,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -719,28 +764,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -748,10 +793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -763,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -787,13 +832,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -801,13 +846,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1.875</v>
+        <v>6.125</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -815,13 +860,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6.375</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -832,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.125</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -843,13 +888,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -857,13 +902,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.375</v>
+        <v>7.125</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -871,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -885,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -899,13 +944,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>7.625</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -923,16 +968,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -940,16 +985,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3.75</v>
+        <v>10.625</v>
       </c>
       <c r="D2">
-        <v>-1.25</v>
+        <v>-1.375</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -960,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>8.875</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -974,13 +1019,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.375</v>
+        <v>8.125</v>
       </c>
       <c r="D4">
-        <v>0.375</v>
+        <v>-0.875</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -991,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>7.375</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-1.625</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1008,16 +1053,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>7.375</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>1.375</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1025,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>5.625</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>1.625</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1042,13 +1087,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1062,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.875</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1086,34 +1131,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1121,223 +1166,223 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>25.82</v>
+        <v>42.55</v>
       </c>
       <c r="C2">
-        <v>23.17</v>
+        <v>31.29</v>
       </c>
       <c r="D2">
-        <v>19.31</v>
+        <v>15.65</v>
       </c>
       <c r="E2">
-        <v>16.13</v>
+        <v>7.17</v>
       </c>
       <c r="F2">
-        <v>12.11</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>2.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H2">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>99.27999999999999</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>21.29</v>
+        <v>38.11</v>
       </c>
       <c r="C3">
-        <v>19.3</v>
+        <v>29.81</v>
       </c>
       <c r="D3">
-        <v>19.85</v>
+        <v>17.16</v>
       </c>
       <c r="E3">
-        <v>18.1</v>
+        <v>9.42</v>
       </c>
       <c r="F3">
-        <v>15.33</v>
+        <v>3.97</v>
       </c>
       <c r="G3">
-        <v>4.58</v>
+        <v>1.33</v>
       </c>
       <c r="H3">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>98.45</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>19.72</v>
+        <v>10.35</v>
       </c>
       <c r="C4">
-        <v>19.78</v>
+        <v>17.82</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>23.36</v>
       </c>
       <c r="E4">
-        <v>18.74</v>
+        <v>21.55</v>
       </c>
       <c r="F4">
-        <v>16.56</v>
+        <v>15.43</v>
       </c>
       <c r="G4">
-        <v>4.37</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="H4">
-        <v>1.38</v>
+        <v>2.8</v>
       </c>
       <c r="I4">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>98.27000000000001</v>
+        <v>97.19999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>17.88</v>
+        <v>5.47</v>
       </c>
       <c r="C5">
-        <v>20.41</v>
+        <v>11.46</v>
       </c>
       <c r="D5">
-        <v>20.83</v>
+        <v>19.68</v>
       </c>
       <c r="E5">
-        <v>20.23</v>
+        <v>22.48</v>
       </c>
       <c r="F5">
-        <v>16.35</v>
+        <v>20.73</v>
       </c>
       <c r="G5">
-        <v>3.58</v>
+        <v>14.53</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>5.62</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="J5">
-        <v>99.28000000000002</v>
+        <v>94.35000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>14.98</v>
+        <v>2.57</v>
       </c>
       <c r="C6">
-        <v>16.52</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="D6">
-        <v>18.5</v>
+        <v>14.8</v>
       </c>
       <c r="E6">
-        <v>20.32</v>
+        <v>20.87</v>
       </c>
       <c r="F6">
-        <v>18.4</v>
+        <v>23.26</v>
       </c>
       <c r="G6">
-        <v>7.79</v>
+        <v>21.41</v>
       </c>
       <c r="H6">
-        <v>2.84</v>
+        <v>10.11</v>
       </c>
       <c r="I6">
-        <v>0.65</v>
+        <v>0.09</v>
       </c>
       <c r="J6">
-        <v>96.51000000000001</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.22</v>
+        <v>0.91</v>
       </c>
       <c r="C7">
-        <v>0.54</v>
+        <v>2.45</v>
       </c>
       <c r="D7">
-        <v>1.69</v>
+        <v>7.73</v>
       </c>
       <c r="E7">
-        <v>3.57</v>
+        <v>14.56</v>
       </c>
       <c r="F7">
-        <v>10.08</v>
+        <v>23.71</v>
       </c>
       <c r="G7">
-        <v>27.69</v>
+        <v>28.9</v>
       </c>
       <c r="H7">
-        <v>28.46</v>
+        <v>21.4</v>
       </c>
       <c r="I7">
-        <v>27.75</v>
+        <v>0.34</v>
       </c>
       <c r="J7">
-        <v>43.79</v>
+        <v>78.25999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.06999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="D8">
-        <v>0.5499999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="E8">
-        <v>2.03</v>
+        <v>3.95</v>
       </c>
       <c r="F8">
-        <v>6.959999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="G8">
-        <v>26.45</v>
+        <v>24.33</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>56.46</v>
       </c>
       <c r="I8">
-        <v>32.73</v>
+        <v>3.02</v>
       </c>
       <c r="J8">
-        <v>36.27</v>
+        <v>40.52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1345,31 +1390,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>22.8</v>
+        <v>0.12</v>
       </c>
       <c r="H9">
-        <v>33.86</v>
+        <v>3.36</v>
       </c>
       <c r="I9">
-        <v>37.99</v>
+        <v>96.52</v>
       </c>
       <c r="J9">
-        <v>28.15</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -1387,16 +1432,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1404,16 +1449,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1421,16 +1466,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1438,16 +1483,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,16 +1500,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1472,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>-2</v>
@@ -1481,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1489,16 +1534,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1506,16 +1551,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1523,16 +1568,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-21</v>
+        <v>-62</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1542,214 +1587,457 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
+        <v>-15</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>-14</v>
+      </c>
+      <c r="F5">
+        <v>-18</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5">
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <v>-3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-2</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>-3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-4</v>
+      </c>
+      <c r="L7">
+        <v>-2</v>
+      </c>
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7">
+        <v>-9</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>-8</v>
       </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-18</v>
+      </c>
+      <c r="N8">
+        <v>-16</v>
+      </c>
+      <c r="O8">
+        <v>-24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
+      <c r="D9">
+        <v>-14</v>
+      </c>
+      <c r="E9">
         <v>-9</v>
       </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
-      <c r="F7">
-        <v>-12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-15</v>
-      </c>
-      <c r="E8">
-        <v>-18</v>
-      </c>
-      <c r="F8">
+      <c r="F9">
         <v>-16</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-14</v>
-      </c>
-      <c r="D9">
-        <v>-21</v>
-      </c>
-      <c r="E9">
-        <v>-24</v>
-      </c>
-      <c r="F9">
-        <v>-21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
+      <c r="G9">
+        <v>-27</v>
+      </c>
+      <c r="H9">
+        <v>-33</v>
+      </c>
+      <c r="I9">
+        <v>-36</v>
+      </c>
+      <c r="J9">
+        <v>-42</v>
+      </c>
+      <c r="K9">
+        <v>-45</v>
+      </c>
+      <c r="L9">
+        <v>-54</v>
+      </c>
+      <c r="M9">
+        <v>-52</v>
+      </c>
+      <c r="N9">
+        <v>-62</v>
+      </c>
+      <c r="O9">
+        <v>-62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -45,40 +45,22 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -132,30 +114,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -169,33 +151,6 @@
   </si>
   <si>
     <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -593,25 +548,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -622,25 +577,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -651,25 +606,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -680,25 +635,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -706,28 +661,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -735,28 +690,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -764,28 +719,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -793,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -808,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -832,13 +787,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -846,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6.125</v>
+        <v>1.875</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -860,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6.375</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -877,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>2.125</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -888,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -902,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.125</v>
+        <v>2.375</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -916,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -930,13 +885,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -944,13 +899,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>7.625</v>
+        <v>3.25</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -968,16 +923,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -985,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>10.625</v>
+        <v>3.75</v>
       </c>
       <c r="D2">
-        <v>-1.375</v>
+        <v>-1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1005,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8.875</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1019,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.125</v>
+        <v>3.375</v>
       </c>
       <c r="D4">
-        <v>-0.875</v>
+        <v>0.375</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1036,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7.375</v>
+        <v>3.25</v>
       </c>
       <c r="D5">
-        <v>-1.625</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1053,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.375</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>1.375</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1070,16 +1025,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.625</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>1.625</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1087,13 +1042,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1107,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>0.875</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1131,34 +1086,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1166,223 +1121,223 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42.55</v>
+        <v>26.57</v>
       </c>
       <c r="C2">
-        <v>31.29</v>
+        <v>22.63</v>
       </c>
       <c r="D2">
-        <v>15.65</v>
+        <v>19.02</v>
       </c>
       <c r="E2">
-        <v>7.17</v>
+        <v>16.04</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>12.26</v>
       </c>
       <c r="G2">
-        <v>0.6899999999999999</v>
+        <v>2.91</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>99.95</v>
+        <v>99.42999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>38.11</v>
+        <v>20.82</v>
       </c>
       <c r="C3">
-        <v>29.81</v>
+        <v>19.53</v>
       </c>
       <c r="D3">
-        <v>17.16</v>
+        <v>19.37</v>
       </c>
       <c r="E3">
-        <v>9.42</v>
+        <v>18.65</v>
       </c>
       <c r="F3">
-        <v>3.97</v>
+        <v>15.25</v>
       </c>
       <c r="G3">
-        <v>1.33</v>
+        <v>4.88</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10.35</v>
+        <v>19.5</v>
       </c>
       <c r="C4">
-        <v>17.82</v>
+        <v>19.48</v>
       </c>
       <c r="D4">
-        <v>23.36</v>
+        <v>19.31</v>
       </c>
       <c r="E4">
-        <v>21.55</v>
+        <v>19.19</v>
       </c>
       <c r="F4">
-        <v>15.43</v>
+        <v>16.17</v>
       </c>
       <c r="G4">
-        <v>8.690000000000001</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="H4">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J4">
-        <v>97.19999999999999</v>
+        <v>98.41000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>5.47</v>
+        <v>18.14</v>
       </c>
       <c r="C5">
-        <v>11.46</v>
+        <v>20.44</v>
       </c>
       <c r="D5">
-        <v>19.68</v>
+        <v>20.98</v>
       </c>
       <c r="E5">
-        <v>22.48</v>
+        <v>19.61</v>
       </c>
       <c r="F5">
-        <v>20.73</v>
+        <v>16.11</v>
       </c>
       <c r="G5">
-        <v>14.53</v>
+        <v>3.74</v>
       </c>
       <c r="H5">
-        <v>5.62</v>
+        <v>0.86</v>
       </c>
       <c r="I5">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="J5">
-        <v>94.35000000000001</v>
+        <v>99.01999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2.57</v>
+        <v>14.74</v>
       </c>
       <c r="C6">
-        <v>6.890000000000001</v>
+        <v>17.28</v>
       </c>
       <c r="D6">
-        <v>14.8</v>
+        <v>18.92</v>
       </c>
       <c r="E6">
-        <v>20.87</v>
+        <v>19.66</v>
       </c>
       <c r="F6">
-        <v>23.26</v>
+        <v>19.24</v>
       </c>
       <c r="G6">
-        <v>21.41</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="H6">
-        <v>10.11</v>
+        <v>2.71</v>
       </c>
       <c r="I6">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
-        <v>89.8</v>
+        <v>96.69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.91</v>
+        <v>0.19</v>
       </c>
       <c r="C7">
-        <v>2.45</v>
+        <v>0.46</v>
       </c>
       <c r="D7">
-        <v>7.73</v>
+        <v>1.48</v>
       </c>
       <c r="E7">
-        <v>14.56</v>
+        <v>3.72</v>
       </c>
       <c r="F7">
-        <v>23.71</v>
+        <v>9.25</v>
       </c>
       <c r="G7">
-        <v>28.9</v>
+        <v>27.39</v>
       </c>
       <c r="H7">
-        <v>21.4</v>
+        <v>30.26</v>
       </c>
       <c r="I7">
-        <v>0.34</v>
+        <v>27.25</v>
       </c>
       <c r="J7">
-        <v>78.25999999999999</v>
+        <v>42.48999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C8">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="D8">
-        <v>1.62</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E8">
-        <v>3.95</v>
+        <v>1.99</v>
       </c>
       <c r="F8">
-        <v>10.3</v>
+        <v>7.35</v>
       </c>
       <c r="G8">
-        <v>24.33</v>
+        <v>25.94</v>
       </c>
       <c r="H8">
-        <v>56.46</v>
+        <v>30.56</v>
       </c>
       <c r="I8">
-        <v>3.02</v>
+        <v>33.28</v>
       </c>
       <c r="J8">
-        <v>40.52</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1390,31 +1345,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="G9">
-        <v>0.12</v>
+        <v>23.53</v>
       </c>
       <c r="H9">
-        <v>3.36</v>
+        <v>32.6</v>
       </c>
       <c r="I9">
-        <v>96.52</v>
+        <v>38.1</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>29.3</v>
       </c>
     </row>
   </sheetData>
@@ -1432,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1449,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1466,16 +1421,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1483,16 +1438,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1500,16 +1455,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1517,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-2</v>
@@ -1526,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1534,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1551,16 +1506,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1568,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-62</v>
+        <v>-21</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1587,457 +1542,214 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>24</v>
-      </c>
-      <c r="L2">
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>-12</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="N2">
-        <v>45</v>
-      </c>
-      <c r="O2">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-15</v>
+      </c>
+      <c r="E8">
+        <v>-18</v>
+      </c>
+      <c r="F8">
+        <v>-16</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>-3</v>
-      </c>
-      <c r="D3">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
-      <c r="M3">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="C9">
+        <v>-14</v>
+      </c>
+      <c r="D9">
+        <v>-21</v>
+      </c>
+      <c r="E9">
+        <v>-24</v>
+      </c>
+      <c r="F9">
+        <v>-21</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-      <c r="D4">
-        <v>-2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>16</v>
-      </c>
-      <c r="O4">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-8</v>
-      </c>
-      <c r="C5">
-        <v>-15</v>
-      </c>
-      <c r="D5">
-        <v>-10</v>
-      </c>
-      <c r="E5">
-        <v>-14</v>
-      </c>
-      <c r="F5">
-        <v>-18</v>
-      </c>
-      <c r="G5">
-        <v>-14</v>
-      </c>
-      <c r="H5">
-        <v>-4</v>
-      </c>
-      <c r="I5">
-        <v>-3</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>-2</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
-        <v>-3</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>-2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>-8</v>
-      </c>
-      <c r="G7">
-        <v>-6</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7">
-        <v>-2</v>
-      </c>
-      <c r="M7">
-        <v>-8</v>
-      </c>
-      <c r="N7">
-        <v>-9</v>
-      </c>
-      <c r="O7">
-        <v>-6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>-8</v>
-      </c>
-      <c r="L8">
-        <v>-14</v>
-      </c>
-      <c r="M8">
-        <v>-18</v>
-      </c>
-      <c r="N8">
-        <v>-16</v>
-      </c>
-      <c r="O8">
-        <v>-24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-14</v>
-      </c>
-      <c r="E9">
-        <v>-9</v>
-      </c>
-      <c r="F9">
-        <v>-16</v>
-      </c>
-      <c r="G9">
-        <v>-27</v>
-      </c>
-      <c r="H9">
-        <v>-33</v>
-      </c>
-      <c r="I9">
-        <v>-36</v>
-      </c>
-      <c r="J9">
-        <v>-42</v>
-      </c>
-      <c r="K9">
-        <v>-45</v>
-      </c>
-      <c r="L9">
-        <v>-54</v>
-      </c>
-      <c r="M9">
-        <v>-52</v>
-      </c>
-      <c r="N9">
-        <v>-62</v>
-      </c>
-      <c r="O9">
-        <v>-62</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -45,22 +45,25 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -114,28 +117,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -554,13 +554,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -592,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -638,16 +638,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -661,28 +661,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -696,22 +696,22 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -722,25 +722,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -787,13 +787,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -801,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1.875</v>
+        <v>2.375</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -815,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -829,13 +829,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.125</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -843,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -860,10 +860,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2.375</v>
+        <v>3.125</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -871,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.875</v>
+        <v>3.375</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -885,13 +885,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -902,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -923,16 +923,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.75</v>
+        <v>4.375</v>
       </c>
       <c r="D2">
-        <v>-1.25</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -957,16 +957,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.375</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -974,16 +974,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3.375</v>
+        <v>4.125</v>
       </c>
       <c r="D4">
-        <v>0.375</v>
+        <v>-0.875</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -991,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1045,13 +1045,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1086,34 +1086,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1121,159 +1121,159 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>26.57</v>
+        <v>38.65</v>
       </c>
       <c r="C2">
-        <v>22.63</v>
+        <v>26.6</v>
       </c>
       <c r="D2">
-        <v>19.02</v>
+        <v>17.74</v>
       </c>
       <c r="E2">
-        <v>16.04</v>
+        <v>10.74</v>
       </c>
       <c r="F2">
-        <v>12.26</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="G2">
-        <v>2.91</v>
+        <v>1.01</v>
       </c>
       <c r="H2">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="J2">
-        <v>99.42999999999999</v>
+        <v>99.89000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>20.82</v>
+        <v>27.33</v>
       </c>
       <c r="C3">
-        <v>19.53</v>
+        <v>23.39</v>
       </c>
       <c r="D3">
-        <v>19.37</v>
+        <v>20.07</v>
       </c>
       <c r="E3">
-        <v>18.65</v>
+        <v>16.26</v>
       </c>
       <c r="F3">
-        <v>15.25</v>
+        <v>9.68</v>
       </c>
       <c r="G3">
-        <v>4.88</v>
+        <v>2.76</v>
       </c>
       <c r="H3">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="J3">
-        <v>98.5</v>
+        <v>99.48999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>19.5</v>
+        <v>13.95</v>
       </c>
       <c r="C4">
-        <v>19.48</v>
+        <v>18.08</v>
       </c>
       <c r="D4">
-        <v>19.31</v>
+        <v>19.65</v>
       </c>
       <c r="E4">
-        <v>19.19</v>
+        <v>21.28</v>
       </c>
       <c r="F4">
-        <v>16.17</v>
+        <v>18.27</v>
       </c>
       <c r="G4">
-        <v>4.760000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="H4">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="I4">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="J4">
-        <v>98.41000000000001</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>18.14</v>
+        <v>12.45</v>
       </c>
       <c r="C5">
-        <v>20.44</v>
+        <v>17.7</v>
       </c>
       <c r="D5">
-        <v>20.98</v>
+        <v>20.52</v>
       </c>
       <c r="E5">
-        <v>19.61</v>
+        <v>21.41</v>
       </c>
       <c r="F5">
-        <v>16.11</v>
+        <v>18.16</v>
       </c>
       <c r="G5">
-        <v>3.74</v>
+        <v>7.24</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>1.94</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>0.58</v>
       </c>
       <c r="J5">
-        <v>99.01999999999998</v>
+        <v>97.47999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>14.74</v>
+        <v>7.35</v>
       </c>
       <c r="C6">
-        <v>17.28</v>
+        <v>13.09</v>
       </c>
       <c r="D6">
-        <v>18.92</v>
+        <v>18.36</v>
       </c>
       <c r="E6">
-        <v>19.66</v>
+        <v>21.74</v>
       </c>
       <c r="F6">
-        <v>19.24</v>
+        <v>22.12</v>
       </c>
       <c r="G6">
-        <v>6.850000000000001</v>
+        <v>11.77</v>
       </c>
       <c r="H6">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="J6">
-        <v>96.69</v>
+        <v>94.42999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1281,31 +1281,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C7">
-        <v>0.46</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="D7">
-        <v>1.48</v>
+        <v>2.82</v>
       </c>
       <c r="E7">
-        <v>3.72</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="F7">
-        <v>9.25</v>
+        <v>15.94</v>
       </c>
       <c r="G7">
-        <v>27.39</v>
+        <v>31.25</v>
       </c>
       <c r="H7">
-        <v>30.26</v>
+        <v>25.37</v>
       </c>
       <c r="I7">
-        <v>27.25</v>
+        <v>17.42</v>
       </c>
       <c r="J7">
-        <v>42.48999999999999</v>
+        <v>57.20999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1316,28 +1316,28 @@
         <v>0.03</v>
       </c>
       <c r="C8">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E8">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="F8">
-        <v>7.35</v>
+        <v>6.64</v>
       </c>
       <c r="G8">
-        <v>25.94</v>
+        <v>21.65</v>
       </c>
       <c r="H8">
-        <v>30.56</v>
+        <v>32</v>
       </c>
       <c r="I8">
-        <v>33.28</v>
+        <v>37.03</v>
       </c>
       <c r="J8">
-        <v>36.16</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1345,31 +1345,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0.03</v>
       </c>
       <c r="D9">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="E9">
-        <v>1.14</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
-        <v>4.37</v>
+        <v>4.04</v>
       </c>
       <c r="G9">
-        <v>23.53</v>
+        <v>17.44</v>
       </c>
       <c r="H9">
-        <v>32.6</v>
+        <v>34.23999999999999</v>
       </c>
       <c r="I9">
-        <v>38.1</v>
+        <v>43.34</v>
       </c>
       <c r="J9">
-        <v>29.3</v>
+        <v>22.42</v>
       </c>
     </row>
   </sheetData>
@@ -1387,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1404,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1421,16 +1421,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1441,13 +1441,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1458,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1489,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1506,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1523,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1542,79 +1542,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1633,11 +1642,14 @@
       <c r="F4">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1656,11 +1668,14 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,77 +1694,89 @@
       <c r="F6">
         <v>-2</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>-4</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="D7">
-        <v>-9</v>
+        <v>-21</v>
       </c>
       <c r="E7">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="F7">
-        <v>-12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-21</v>
+      </c>
+      <c r="G7">
+        <v>-16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D8">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="E8">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="F8">
-        <v>-16</v>
-      </c>
-      <c r="G8" t="s">
+        <v>-12</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>-4</v>
       </c>
       <c r="C9">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="D9">
+        <v>-15</v>
+      </c>
+      <c r="E9">
+        <v>-18</v>
+      </c>
+      <c r="F9">
+        <v>-16</v>
+      </c>
+      <c r="G9">
         <v>-21</v>
       </c>
-      <c r="E9">
-        <v>-24</v>
-      </c>
-      <c r="F9">
-        <v>-21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
+      <c r="H9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -27,10 +27,10 @@
     <t>Pleasant Valley Panthers</t>
   </si>
   <si>
-    <t>Seigaku FC</t>
-  </si>
-  <si>
-    <t>Pitman MaleManipulator</t>
+    <t>Inter Miami CF</t>
+  </si>
+  <si>
+    <t>Bryson Stott Fan Club</t>
   </si>
   <si>
     <t>Abyss Diamond Eyes</t>
@@ -42,28 +42,28 @@
     <t>Wut happened uh 🤷🏽‍♂️</t>
   </si>
   <si>
-    <t xml:space="preserve">Champagne  Papi </t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>THE POOL</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -117,22 +117,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -563,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -577,22 +583,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -609,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -621,10 +627,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -638,19 +644,19 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -661,28 +667,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -690,28 +696,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -722,22 +728,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -748,28 +754,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -801,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -815,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -832,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3.125</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -843,13 +849,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.625</v>
+        <v>3.375</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -857,13 +863,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.125</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -871,13 +877,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.375</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -902,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +949,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4.375</v>
+        <v>5.25</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>-0.75</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -957,16 +963,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.375</v>
+        <v>4.875</v>
       </c>
       <c r="D3">
-        <v>0.375</v>
+        <v>-1.125</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -974,13 +980,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
       <c r="D4">
-        <v>-0.875</v>
+        <v>-0.375</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -991,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1008,16 +1014,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1028,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1042,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1059,16 +1065,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1121,31 +1127,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>38.65</v>
+        <v>33.08</v>
       </c>
       <c r="C2">
-        <v>26.6</v>
+        <v>23.94</v>
       </c>
       <c r="D2">
-        <v>17.74</v>
+        <v>18.76</v>
       </c>
       <c r="E2">
-        <v>10.74</v>
+        <v>13.38</v>
       </c>
       <c r="F2">
-        <v>5.149999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="G2">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2">
-        <v>99.89000000000001</v>
+        <v>99.75999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1153,95 +1159,95 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>27.33</v>
+        <v>25.47</v>
       </c>
       <c r="C3">
-        <v>23.39</v>
+        <v>25.68</v>
       </c>
       <c r="D3">
-        <v>20.07</v>
+        <v>21.17</v>
       </c>
       <c r="E3">
-        <v>16.26</v>
+        <v>15.41</v>
       </c>
       <c r="F3">
-        <v>9.68</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="G3">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="H3">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="J3">
-        <v>99.48999999999999</v>
+        <v>99.58999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>13.95</v>
+        <v>15.26</v>
       </c>
       <c r="C4">
-        <v>18.08</v>
+        <v>16.79</v>
       </c>
       <c r="D4">
-        <v>19.65</v>
+        <v>18.96</v>
       </c>
       <c r="E4">
-        <v>21.28</v>
+        <v>20.43</v>
       </c>
       <c r="F4">
-        <v>18.27</v>
+        <v>19.72</v>
       </c>
       <c r="G4">
-        <v>6.88</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="H4">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I4">
         <v>0.3</v>
       </c>
       <c r="J4">
-        <v>98.11</v>
+        <v>98.11999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>12.45</v>
+        <v>14.01</v>
       </c>
       <c r="C5">
-        <v>17.7</v>
+        <v>16.61</v>
       </c>
       <c r="D5">
-        <v>20.52</v>
+        <v>18.87</v>
       </c>
       <c r="E5">
-        <v>21.41</v>
+        <v>21.75</v>
       </c>
       <c r="F5">
-        <v>18.16</v>
+        <v>18.74</v>
       </c>
       <c r="G5">
         <v>7.24</v>
       </c>
       <c r="H5">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="I5">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>97.47999999999999</v>
+        <v>97.21999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1249,31 +1255,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.35</v>
+        <v>11.81</v>
       </c>
       <c r="C6">
-        <v>13.09</v>
+        <v>15.95</v>
       </c>
       <c r="D6">
-        <v>18.36</v>
+        <v>19.13</v>
       </c>
       <c r="E6">
-        <v>21.74</v>
+        <v>21.12</v>
       </c>
       <c r="F6">
-        <v>22.12</v>
+        <v>19.64</v>
       </c>
       <c r="G6">
-        <v>11.77</v>
+        <v>9.42</v>
       </c>
       <c r="H6">
-        <v>4.27</v>
+        <v>2.33</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
-        <v>94.42999999999999</v>
+        <v>97.07000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1281,31 +1287,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="C7">
-        <v>0.9900000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D7">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="E7">
-        <v>5.970000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="F7">
-        <v>15.94</v>
+        <v>14.83</v>
       </c>
       <c r="G7">
-        <v>31.25</v>
+        <v>33.44</v>
       </c>
       <c r="H7">
-        <v>25.37</v>
+        <v>25.39</v>
       </c>
       <c r="I7">
-        <v>17.42</v>
+        <v>16.37</v>
       </c>
       <c r="J7">
-        <v>57.20999999999999</v>
+        <v>58.23999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1313,31 +1319,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D8">
-        <v>0.6799999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E8">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="F8">
-        <v>6.64</v>
+        <v>4.67</v>
       </c>
       <c r="G8">
-        <v>21.65</v>
+        <v>18.41</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>30.35</v>
       </c>
       <c r="I8">
-        <v>37.03</v>
+        <v>45.16</v>
       </c>
       <c r="J8">
-        <v>30.97</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1345,31 +1351,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D9">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E9">
-        <v>0.75</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="F9">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="G9">
-        <v>17.44</v>
+        <v>20.44</v>
       </c>
       <c r="H9">
-        <v>34.23999999999999</v>
+        <v>37.41999999999999</v>
       </c>
       <c r="I9">
-        <v>43.34</v>
+        <v>37.07</v>
       </c>
       <c r="J9">
-        <v>22.42</v>
+        <v>25.51</v>
       </c>
     </row>
   </sheetData>
@@ -1404,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1421,13 +1427,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -1438,13 +1444,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -1458,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1475,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1492,13 +1498,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1509,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1526,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1542,114 +1548,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1671,11 +1689,14 @@
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,11 +1718,14 @@
       <c r="G6">
         <v>-3</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1723,11 +1747,14 @@
       <c r="G7">
         <v>-16</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>-14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1749,11 +1776,14 @@
       <c r="G8">
         <v>-20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>-16</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1775,8 +1805,11 @@
       <c r="G9">
         <v>-21</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
+      <c r="H9">
+        <v>-32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="62">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -111,12 +112,39 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
@@ -157,6 +185,27 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1127,31 +1176,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33.08</v>
+        <v>33.06</v>
       </c>
       <c r="C2">
-        <v>23.94</v>
+        <v>23.54</v>
       </c>
       <c r="D2">
-        <v>18.76</v>
+        <v>18.3</v>
       </c>
       <c r="E2">
-        <v>13.38</v>
+        <v>13.68</v>
       </c>
       <c r="F2">
-        <v>8.74</v>
+        <v>9.09</v>
       </c>
       <c r="G2">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="H2">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J2">
-        <v>99.75999999999999</v>
+        <v>99.70000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1159,31 +1208,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>25.47</v>
+        <v>26.76</v>
       </c>
       <c r="C3">
-        <v>25.68</v>
+        <v>25.84</v>
       </c>
       <c r="D3">
-        <v>21.17</v>
+        <v>20.07</v>
       </c>
       <c r="E3">
-        <v>15.41</v>
+        <v>15.2</v>
       </c>
       <c r="F3">
-        <v>9.629999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="G3">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="H3">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J3">
-        <v>99.58999999999999</v>
+        <v>99.73000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1191,31 +1240,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>15.26</v>
+        <v>14.59</v>
       </c>
       <c r="C4">
-        <v>16.79</v>
+        <v>17.1</v>
       </c>
       <c r="D4">
-        <v>18.96</v>
+        <v>19.27</v>
       </c>
       <c r="E4">
-        <v>20.43</v>
+        <v>20.96</v>
       </c>
       <c r="F4">
-        <v>19.72</v>
+        <v>19.54</v>
       </c>
       <c r="G4">
-        <v>6.959999999999999</v>
+        <v>6.58</v>
       </c>
       <c r="H4">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="J4">
-        <v>98.11999999999999</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1223,31 +1272,31 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>14.01</v>
+        <v>13.8</v>
       </c>
       <c r="C5">
-        <v>16.61</v>
+        <v>16.99</v>
       </c>
       <c r="D5">
-        <v>18.87</v>
+        <v>19.18</v>
       </c>
       <c r="E5">
-        <v>21.75</v>
+        <v>20.82</v>
       </c>
       <c r="F5">
-        <v>18.74</v>
+        <v>19.37</v>
       </c>
       <c r="G5">
-        <v>7.24</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="H5">
-        <v>2.34</v>
+        <v>2.03</v>
       </c>
       <c r="I5">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="J5">
-        <v>97.21999999999998</v>
+        <v>97.52</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1255,31 +1304,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81</v>
+        <v>11.49</v>
       </c>
       <c r="C6">
-        <v>15.95</v>
+        <v>15.36</v>
       </c>
       <c r="D6">
-        <v>19.13</v>
+        <v>19.8</v>
       </c>
       <c r="E6">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="F6">
-        <v>19.64</v>
+        <v>19.91</v>
       </c>
       <c r="G6">
-        <v>9.42</v>
+        <v>8.49</v>
       </c>
       <c r="H6">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="J6">
-        <v>97.07000000000001</v>
+        <v>96.34999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1287,95 +1336,95 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>0.8999999999999999</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="D7">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="E7">
-        <v>6.02</v>
+        <v>5.77</v>
       </c>
       <c r="F7">
-        <v>14.83</v>
+        <v>14.05</v>
       </c>
       <c r="G7">
-        <v>33.44</v>
+        <v>34.44</v>
       </c>
       <c r="H7">
-        <v>25.39</v>
+        <v>24.54</v>
       </c>
       <c r="I7">
-        <v>16.37</v>
+        <v>17.08</v>
       </c>
       <c r="J7">
-        <v>58.23999999999999</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="E8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F8">
-        <v>4.67</v>
+        <v>4.29</v>
       </c>
       <c r="G8">
-        <v>18.41</v>
+        <v>20.75</v>
       </c>
       <c r="H8">
-        <v>30.35</v>
+        <v>37.68</v>
       </c>
       <c r="I8">
-        <v>45.16</v>
+        <v>35.83</v>
       </c>
       <c r="J8">
-        <v>24.49</v>
+        <v>26.49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D9">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="E9">
-        <v>0.8200000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="F9">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="G9">
-        <v>20.44</v>
+        <v>18.22</v>
       </c>
       <c r="H9">
-        <v>37.41999999999999</v>
+        <v>30.73</v>
       </c>
       <c r="I9">
-        <v>37.07</v>
+        <v>45.48</v>
       </c>
       <c r="J9">
-        <v>25.51</v>
+        <v>23.79</v>
       </c>
     </row>
   </sheetData>
@@ -1385,13 +1434,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1399,146 +1448,173 @@
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
         <v>-4</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
         <v>-14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
         <v>-16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
         <v>-32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
+      <c r="F9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1556,28 +1632,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1606,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1635,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1664,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1693,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1722,7 +1798,7 @@
         <v>-4</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1751,7 +1827,7 @@
         <v>-14</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1780,7 +1856,7 @@
         <v>-16</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1809,7 +1885,277 @@
         <v>-32</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-12</v>
+      </c>
+      <c r="F5">
+        <v>-21</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>-21</v>
+      </c>
+      <c r="F7">
+        <v>-15</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-21</v>
+      </c>
+      <c r="F10">
+        <v>-20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,25 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -121,15 +124,15 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
     <t>gianni alessio</t>
   </si>
   <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
     <t>James Breen</t>
   </si>
   <si>
@@ -145,27 +148,27 @@
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -615,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -632,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -661,25 +667,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -687,28 +693,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -731,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -745,28 +751,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -777,25 +783,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -803,28 +809,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -842,13 +848,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -856,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -870,13 +876,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.875</v>
+        <v>3.375</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -884,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.125</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -898,13 +904,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.375</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -915,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -926,13 +932,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.375</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -940,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.125</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -957,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.125</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -978,16 +984,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -995,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.25</v>
+        <v>5.625</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-0.375</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1012,16 +1018,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="D3">
-        <v>-1.125</v>
+        <v>-0.375</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1029,16 +1035,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.625</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1049,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1066,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>3.875</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1083,13 +1089,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1097,16 +1103,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>2.125</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1114,16 +1120,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1141,34 +1147,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1176,31 +1182,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33.06</v>
+        <v>36.13</v>
       </c>
       <c r="C2">
-        <v>23.54</v>
+        <v>28.65</v>
       </c>
       <c r="D2">
-        <v>18.3</v>
+        <v>18.07</v>
       </c>
       <c r="E2">
-        <v>13.68</v>
+        <v>10.56</v>
       </c>
       <c r="F2">
-        <v>9.09</v>
+        <v>5.07</v>
       </c>
       <c r="G2">
-        <v>2.03</v>
+        <v>1.29</v>
       </c>
       <c r="H2">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>99.70000000000002</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1208,31 +1214,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>26.76</v>
+        <v>32.05</v>
       </c>
       <c r="C3">
-        <v>25.84</v>
+        <v>25.85</v>
       </c>
       <c r="D3">
-        <v>20.07</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>15.2</v>
+        <v>12.57</v>
       </c>
       <c r="F3">
-        <v>9.73</v>
+        <v>7.66</v>
       </c>
       <c r="G3">
-        <v>2.13</v>
+        <v>2.45</v>
       </c>
       <c r="H3">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="I3">
         <v>0.03</v>
       </c>
       <c r="J3">
-        <v>99.73000000000002</v>
+        <v>99.58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1240,95 +1246,95 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14.59</v>
+        <v>16.08</v>
       </c>
       <c r="C4">
-        <v>17.1</v>
+        <v>18.47</v>
       </c>
       <c r="D4">
-        <v>19.27</v>
+        <v>20.89</v>
       </c>
       <c r="E4">
-        <v>20.96</v>
+        <v>19.54</v>
       </c>
       <c r="F4">
-        <v>19.54</v>
+        <v>15.01</v>
       </c>
       <c r="G4">
-        <v>6.58</v>
+        <v>7.99</v>
       </c>
       <c r="H4">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="J4">
-        <v>98.04000000000001</v>
+        <v>97.97999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>13.8</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C5">
-        <v>16.99</v>
+        <v>12.67</v>
       </c>
       <c r="D5">
-        <v>19.18</v>
+        <v>18.08</v>
       </c>
       <c r="E5">
-        <v>20.82</v>
+        <v>20.54</v>
       </c>
       <c r="F5">
-        <v>19.37</v>
+        <v>20.87</v>
       </c>
       <c r="G5">
-        <v>7.359999999999999</v>
+        <v>13.84</v>
       </c>
       <c r="H5">
-        <v>2.03</v>
+        <v>4.62</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>1.01</v>
       </c>
       <c r="J5">
-        <v>97.52</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>11.49</v>
+        <v>6.31</v>
       </c>
       <c r="C6">
-        <v>15.36</v>
+        <v>11.41</v>
       </c>
       <c r="D6">
-        <v>19.8</v>
+        <v>17.35</v>
       </c>
       <c r="E6">
-        <v>21.3</v>
+        <v>21.76</v>
       </c>
       <c r="F6">
-        <v>19.91</v>
+        <v>21.86</v>
       </c>
       <c r="G6">
-        <v>8.49</v>
+        <v>14.56</v>
       </c>
       <c r="H6">
-        <v>2.84</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="I6">
-        <v>0.8099999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="J6">
-        <v>96.34999999999999</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1336,95 +1342,95 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C7">
-        <v>0.9900000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="D7">
-        <v>2.83</v>
+        <v>5.94</v>
       </c>
       <c r="E7">
-        <v>5.77</v>
+        <v>11.99</v>
       </c>
       <c r="F7">
-        <v>14.05</v>
+        <v>19.88</v>
       </c>
       <c r="G7">
-        <v>34.44</v>
+        <v>31.03</v>
       </c>
       <c r="H7">
-        <v>24.54</v>
+        <v>19.28</v>
       </c>
       <c r="I7">
-        <v>17.08</v>
+        <v>8.18</v>
       </c>
       <c r="J7">
-        <v>58.38</v>
+        <v>72.54000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="D8">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>1.08</v>
+        <v>2.44</v>
       </c>
       <c r="F8">
-        <v>4.29</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="G8">
-        <v>20.75</v>
+        <v>19.11</v>
       </c>
       <c r="H8">
-        <v>37.68</v>
+        <v>36.81</v>
       </c>
       <c r="I8">
-        <v>35.83</v>
+        <v>33.37</v>
       </c>
       <c r="J8">
-        <v>26.49</v>
+        <v>29.82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <v>0.28</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E9">
-        <v>1.19</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
-        <v>4.02</v>
+        <v>2.27</v>
       </c>
       <c r="G9">
-        <v>18.22</v>
+        <v>9.73</v>
       </c>
       <c r="H9">
-        <v>30.73</v>
+        <v>31.44</v>
       </c>
       <c r="I9">
-        <v>45.48</v>
+        <v>55.87</v>
       </c>
       <c r="J9">
-        <v>23.79</v>
+        <v>12.69</v>
       </c>
     </row>
   </sheetData>
@@ -1442,19 +1448,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1462,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1482,19 +1488,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1502,19 +1508,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1525,16 +1531,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1545,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1565,16 +1571,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1585,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1605,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1624,126 +1630,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1768,11 +1786,14 @@
       <c r="H5">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,11 +1818,14 @@
       <c r="H6">
         <v>-4</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>-6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1826,11 +1850,14 @@
       <c r="H7">
         <v>-14</v>
       </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1855,11 +1882,14 @@
       <c r="H8">
         <v>-16</v>
       </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1884,8 +1914,11 @@
       <c r="H9">
         <v>-32</v>
       </c>
-      <c r="I9" t="s">
-        <v>47</v>
+      <c r="I9">
+        <v>-28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1903,25 +1936,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1929,25 +1962,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1955,25 +1988,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1981,19 +2014,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2007,25 +2040,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
       <c r="E5">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2033,25 +2066,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2059,25 +2092,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>-21</v>
-      </c>
       <c r="F7">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2085,25 +2118,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>-21</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2114,22 +2147,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
       <c r="F9">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2137,25 +2170,51 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-21</v>
-      </c>
-      <c r="F10">
-        <v>-20</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,25 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -121,15 +124,15 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>Derek Alcavage</t>
-  </si>
-  <si>
-    <t>Gianpierre Lopez</t>
-  </si>
-  <si>
     <t>James Breen</t>
   </si>
   <si>
@@ -145,25 +148,22 @@
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓11</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -603,22 +609,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -632,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -661,25 +667,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -687,28 +693,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -722,19 +728,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -745,28 +751,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -774,28 +780,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -803,28 +809,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -842,13 +848,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -856,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -870,13 +876,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.875</v>
+        <v>3.875</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -884,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.125</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -901,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3.375</v>
+        <v>4.75</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -912,13 +918,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -929,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.875</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -940,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -954,13 +960,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4.125</v>
+        <v>5.125</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -978,16 +984,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -995,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1015,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="D3">
-        <v>-1.125</v>
+        <v>-1.375</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1029,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.625</v>
+        <v>5.625</v>
       </c>
       <c r="D4">
         <v>-0.375</v>
@@ -1049,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.875</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1066,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.375</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1083,13 +1089,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1097,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>3.125</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1114,16 +1120,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>2.375</v>
+      </c>
+      <c r="D9">
         <v>1.375</v>
       </c>
-      <c r="D9">
-        <v>0.375</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1141,34 +1147,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1176,31 +1182,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33.06</v>
+        <v>35.79</v>
       </c>
       <c r="C2">
-        <v>23.54</v>
+        <v>24.09</v>
       </c>
       <c r="D2">
-        <v>18.3</v>
+        <v>16.24</v>
       </c>
       <c r="E2">
-        <v>13.68</v>
+        <v>11.31</v>
       </c>
       <c r="F2">
-        <v>9.09</v>
+        <v>7.48</v>
       </c>
       <c r="G2">
-        <v>2.03</v>
+        <v>3.86</v>
       </c>
       <c r="H2">
-        <v>0.27</v>
+        <v>1.07</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="J2">
-        <v>99.70000000000002</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1208,127 +1214,127 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>26.76</v>
+        <v>22.33</v>
       </c>
       <c r="C3">
-        <v>25.84</v>
+        <v>20.35</v>
       </c>
       <c r="D3">
-        <v>20.07</v>
+        <v>18.05</v>
       </c>
       <c r="E3">
-        <v>15.2</v>
+        <v>15.23</v>
       </c>
       <c r="F3">
-        <v>9.73</v>
+        <v>12.54</v>
       </c>
       <c r="G3">
-        <v>2.13</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="H3">
-        <v>0.24</v>
+        <v>3.22</v>
       </c>
       <c r="I3">
-        <v>0.03</v>
+        <v>0.65</v>
       </c>
       <c r="J3">
-        <v>99.73000000000002</v>
+        <v>96.13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>14.59</v>
+        <v>12.97</v>
       </c>
       <c r="C4">
-        <v>17.1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>19.27</v>
+        <v>17.83</v>
       </c>
       <c r="E4">
-        <v>20.96</v>
+        <v>16.65</v>
       </c>
       <c r="F4">
-        <v>19.54</v>
+        <v>14.88</v>
       </c>
       <c r="G4">
-        <v>6.58</v>
+        <v>12.04</v>
       </c>
       <c r="H4">
-        <v>1.67</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>2.52</v>
       </c>
       <c r="J4">
-        <v>98.04000000000001</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>13.8</v>
+        <v>12.47</v>
       </c>
       <c r="C5">
-        <v>16.99</v>
+        <v>14.92</v>
       </c>
       <c r="D5">
-        <v>19.18</v>
+        <v>17.26</v>
       </c>
       <c r="E5">
-        <v>20.82</v>
+        <v>17.54</v>
       </c>
       <c r="F5">
-        <v>19.37</v>
+        <v>16.06</v>
       </c>
       <c r="G5">
-        <v>7.359999999999999</v>
+        <v>12.86</v>
       </c>
       <c r="H5">
-        <v>2.03</v>
+        <v>6.76</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>2.13</v>
       </c>
       <c r="J5">
-        <v>97.52</v>
+        <v>91.11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>11.49</v>
+        <v>11.97</v>
       </c>
       <c r="C6">
-        <v>15.36</v>
+        <v>15.51</v>
       </c>
       <c r="D6">
-        <v>19.8</v>
+        <v>16.43</v>
       </c>
       <c r="E6">
-        <v>21.3</v>
+        <v>17.41</v>
       </c>
       <c r="F6">
-        <v>19.91</v>
+        <v>15.63</v>
       </c>
       <c r="G6">
-        <v>8.49</v>
+        <v>12.93</v>
       </c>
       <c r="H6">
-        <v>2.84</v>
+        <v>7.66</v>
       </c>
       <c r="I6">
-        <v>0.8099999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="J6">
-        <v>96.34999999999999</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1336,95 +1342,95 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>3.73</v>
       </c>
       <c r="C7">
-        <v>0.9900000000000001</v>
+        <v>7.26</v>
       </c>
       <c r="D7">
-        <v>2.83</v>
+        <v>10.07</v>
       </c>
       <c r="E7">
-        <v>5.77</v>
+        <v>13.61</v>
       </c>
       <c r="F7">
-        <v>14.05</v>
+        <v>17.73</v>
       </c>
       <c r="G7">
-        <v>34.44</v>
+        <v>20.61</v>
       </c>
       <c r="H7">
-        <v>24.54</v>
+        <v>17.83</v>
       </c>
       <c r="I7">
-        <v>17.08</v>
+        <v>9.16</v>
       </c>
       <c r="J7">
-        <v>58.38</v>
+        <v>73.01000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>1.67</v>
       </c>
       <c r="D8">
-        <v>0.27</v>
+        <v>3.48</v>
       </c>
       <c r="E8">
-        <v>1.08</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="F8">
-        <v>4.29</v>
+        <v>11.72</v>
       </c>
       <c r="G8">
-        <v>20.75</v>
+        <v>19.79</v>
       </c>
       <c r="H8">
-        <v>37.68</v>
+        <v>30.49</v>
       </c>
       <c r="I8">
-        <v>35.83</v>
+        <v>25.54</v>
       </c>
       <c r="J8">
-        <v>26.49</v>
+        <v>43.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="E9">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="F9">
-        <v>4.02</v>
+        <v>3.96</v>
       </c>
       <c r="G9">
-        <v>18.22</v>
+        <v>10.28</v>
       </c>
       <c r="H9">
-        <v>30.73</v>
+        <v>25.86</v>
       </c>
       <c r="I9">
-        <v>45.48</v>
+        <v>57.38</v>
       </c>
       <c r="J9">
-        <v>23.79</v>
+        <v>16.76</v>
       </c>
     </row>
   </sheetData>
@@ -1442,19 +1448,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1462,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1482,19 +1488,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1502,19 +1508,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1525,16 +1531,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1545,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1565,16 +1571,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>-14</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1585,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1605,13 +1611,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>-32</v>
+        <v>-21</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -1624,13 +1630,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1653,97 +1659,121 @@
         <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1768,11 +1798,17 @@
       <c r="H5">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,11 +1833,17 @@
       <c r="H6">
         <v>-4</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>-6</v>
+      </c>
+      <c r="J6">
+        <v>-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1826,11 +1868,17 @@
       <c r="H7">
         <v>-14</v>
       </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1855,11 +1903,17 @@
       <c r="H8">
         <v>-16</v>
       </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-22</v>
+      </c>
+      <c r="J8">
+        <v>-18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1938,13 @@
       <c r="H9">
         <v>-32</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>-28</v>
+      </c>
+      <c r="J9">
+        <v>-21</v>
+      </c>
+      <c r="K9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1895,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1903,25 +1963,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1929,25 +1989,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1955,25 +2015,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>15</v>
+        <v>-18</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1981,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>-14</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2007,25 +2067,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="F5">
         <v>-21</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2033,25 +2093,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2059,25 +2119,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>-21</v>
-      </c>
-      <c r="F7">
-        <v>-15</v>
-      </c>
       <c r="G7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2085,25 +2145,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2111,25 +2171,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
       <c r="E9">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>-21</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2137,25 +2197,103 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>-21</v>
       </c>
-      <c r="F10">
-        <v>-20</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <v>-12</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -1182,31 +1182,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>35.79</v>
+        <v>19.32</v>
       </c>
       <c r="C2">
-        <v>24.09</v>
+        <v>21.42</v>
       </c>
       <c r="D2">
-        <v>16.24</v>
+        <v>14.1</v>
       </c>
       <c r="E2">
-        <v>11.31</v>
+        <v>14.92</v>
       </c>
       <c r="F2">
-        <v>7.48</v>
+        <v>13.21</v>
       </c>
       <c r="G2">
-        <v>3.86</v>
+        <v>7.21</v>
       </c>
       <c r="H2">
-        <v>1.07</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="I2">
-        <v>0.16</v>
+        <v>3.11</v>
       </c>
       <c r="J2">
-        <v>98.77</v>
+        <v>90.17999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1214,31 +1214,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>22.33</v>
+        <v>17.86</v>
       </c>
       <c r="C3">
-        <v>20.35</v>
+        <v>16.78</v>
       </c>
       <c r="D3">
-        <v>18.05</v>
+        <v>11.92</v>
       </c>
       <c r="E3">
-        <v>15.23</v>
+        <v>18.96</v>
       </c>
       <c r="F3">
-        <v>12.54</v>
+        <v>10.53</v>
       </c>
       <c r="G3">
-        <v>7.630000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="H3">
-        <v>3.22</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I3">
-        <v>0.65</v>
+        <v>5.26</v>
       </c>
       <c r="J3">
-        <v>96.13</v>
+        <v>85.70000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1246,95 +1246,95 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>12.97</v>
+        <v>17.01</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>14.14</v>
       </c>
       <c r="D4">
-        <v>17.83</v>
+        <v>18.43</v>
       </c>
       <c r="E4">
-        <v>16.65</v>
+        <v>10.14</v>
       </c>
       <c r="F4">
-        <v>14.88</v>
+        <v>10.57</v>
       </c>
       <c r="G4">
-        <v>12.04</v>
+        <v>13.56</v>
       </c>
       <c r="H4">
-        <v>7.109999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I4">
-        <v>2.52</v>
+        <v>8.1</v>
       </c>
       <c r="J4">
-        <v>90.37</v>
+        <v>83.84999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>12.47</v>
+        <v>16.31</v>
       </c>
       <c r="C5">
-        <v>14.92</v>
+        <v>12.18</v>
       </c>
       <c r="D5">
-        <v>17.26</v>
+        <v>17.11</v>
       </c>
       <c r="E5">
-        <v>17.54</v>
+        <v>14.1</v>
       </c>
       <c r="F5">
-        <v>16.06</v>
+        <v>8.9</v>
       </c>
       <c r="G5">
-        <v>12.86</v>
+        <v>14.39</v>
       </c>
       <c r="H5">
-        <v>6.76</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="I5">
-        <v>2.13</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="J5">
-        <v>91.11</v>
+        <v>82.98999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>11.97</v>
+        <v>13.84</v>
       </c>
       <c r="C6">
-        <v>15.51</v>
+        <v>12.99</v>
       </c>
       <c r="D6">
-        <v>16.43</v>
+        <v>13.72</v>
       </c>
       <c r="E6">
-        <v>17.41</v>
+        <v>17.46</v>
       </c>
       <c r="F6">
-        <v>15.63</v>
+        <v>8.68</v>
       </c>
       <c r="G6">
-        <v>12.93</v>
+        <v>14.07</v>
       </c>
       <c r="H6">
-        <v>7.66</v>
+        <v>10.47</v>
       </c>
       <c r="I6">
-        <v>2.46</v>
+        <v>8.77</v>
       </c>
       <c r="J6">
-        <v>89.88</v>
+        <v>80.75999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1342,31 +1342,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.73</v>
+        <v>9.82</v>
       </c>
       <c r="C7">
-        <v>7.26</v>
+        <v>11.04</v>
       </c>
       <c r="D7">
-        <v>10.07</v>
+        <v>14.18</v>
       </c>
       <c r="E7">
-        <v>13.61</v>
+        <v>7.08</v>
       </c>
       <c r="F7">
-        <v>17.73</v>
+        <v>17.43</v>
       </c>
       <c r="G7">
-        <v>20.61</v>
+        <v>14.27</v>
       </c>
       <c r="H7">
-        <v>17.83</v>
+        <v>11.26</v>
       </c>
       <c r="I7">
-        <v>9.16</v>
+        <v>14.92</v>
       </c>
       <c r="J7">
-        <v>73.01000000000001</v>
+        <v>73.81999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1374,31 +1374,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6899999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="C8">
-        <v>1.67</v>
+        <v>7.84</v>
       </c>
       <c r="D8">
-        <v>3.48</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E8">
-        <v>6.619999999999999</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="F8">
-        <v>11.72</v>
+        <v>18.35</v>
       </c>
       <c r="G8">
-        <v>19.79</v>
+        <v>12.43</v>
       </c>
       <c r="H8">
-        <v>30.49</v>
+        <v>18.39</v>
       </c>
       <c r="I8">
-        <v>25.54</v>
+        <v>22.44</v>
       </c>
       <c r="J8">
-        <v>43.97</v>
+        <v>59.17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1406,31 +1406,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>3.61</v>
       </c>
       <c r="D9">
-        <v>0.64</v>
+        <v>3.34</v>
       </c>
       <c r="E9">
-        <v>1.63</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="F9">
-        <v>3.96</v>
+        <v>12.33</v>
       </c>
       <c r="G9">
-        <v>10.28</v>
+        <v>14.42</v>
       </c>
       <c r="H9">
-        <v>25.86</v>
+        <v>26.56</v>
       </c>
       <c r="I9">
-        <v>57.38</v>
+        <v>29.91</v>
       </c>
       <c r="J9">
-        <v>16.76</v>
+        <v>43.53</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -124,45 +124,48 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
     <t>Derek Alcavage</t>
   </si>
   <si>
-    <t>Gianpierre Lopez</t>
+    <t>James Breen</t>
   </si>
   <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>James Breen</t>
-  </si>
-  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>jack meehan</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -618,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -638,25 +644,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -667,25 +673,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -699,22 +705,22 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -728,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -743,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -751,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -780,28 +786,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -815,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -824,10 +830,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -862,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>4.125</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -876,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.875</v>
+        <v>4.125</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -904,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -918,13 +924,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -932,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -946,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -960,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1004,13 +1010,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.875</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-1.125</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1018,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5.625</v>
+        <v>6.375</v>
       </c>
       <c r="D3">
-        <v>-1.375</v>
+        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1035,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5.625</v>
       </c>
       <c r="D4">
-        <v>-0.375</v>
+        <v>-1.375</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1055,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1072,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.375</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1089,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1106,13 +1112,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.125</v>
+        <v>4.125</v>
       </c>
       <c r="D8">
         <v>0.125</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1123,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="D9">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1182,31 +1188,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>19.32</v>
+        <v>19.45</v>
       </c>
       <c r="C2">
-        <v>21.42</v>
+        <v>17.88</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>23.51</v>
       </c>
       <c r="E2">
-        <v>14.92</v>
+        <v>10.58</v>
       </c>
       <c r="F2">
-        <v>13.21</v>
+        <v>9.07</v>
       </c>
       <c r="G2">
-        <v>7.21</v>
+        <v>11.28</v>
       </c>
       <c r="H2">
-        <v>6.710000000000001</v>
+        <v>4.81</v>
       </c>
       <c r="I2">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="J2">
-        <v>90.17999999999999</v>
+        <v>91.77000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1214,159 +1220,159 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>17.86</v>
+        <v>16.86</v>
       </c>
       <c r="C3">
-        <v>16.78</v>
+        <v>18.49</v>
       </c>
       <c r="D3">
-        <v>11.92</v>
+        <v>18.44</v>
       </c>
       <c r="E3">
-        <v>18.96</v>
+        <v>6.31</v>
       </c>
       <c r="F3">
-        <v>10.53</v>
+        <v>13.9</v>
       </c>
       <c r="G3">
-        <v>9.65</v>
+        <v>13.27</v>
       </c>
       <c r="H3">
-        <v>9.039999999999999</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="I3">
-        <v>5.26</v>
+        <v>6.76</v>
       </c>
       <c r="J3">
-        <v>85.70000000000002</v>
+        <v>87.27000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>17.01</v>
+        <v>14.59</v>
       </c>
       <c r="C4">
-        <v>14.14</v>
+        <v>10.83</v>
       </c>
       <c r="D4">
-        <v>18.43</v>
+        <v>10.8</v>
       </c>
       <c r="E4">
-        <v>10.14</v>
+        <v>20.62</v>
       </c>
       <c r="F4">
-        <v>10.57</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G4">
-        <v>13.56</v>
+        <v>10.09</v>
       </c>
       <c r="H4">
-        <v>8.050000000000001</v>
+        <v>14.51</v>
       </c>
       <c r="I4">
-        <v>8.1</v>
+        <v>10.44</v>
       </c>
       <c r="J4">
-        <v>83.84999999999999</v>
+        <v>75.05000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>16.31</v>
+        <v>13.93</v>
       </c>
       <c r="C5">
-        <v>12.18</v>
+        <v>17.6</v>
       </c>
       <c r="D5">
-        <v>17.11</v>
+        <v>10.96</v>
       </c>
       <c r="E5">
-        <v>14.1</v>
+        <v>7.51</v>
       </c>
       <c r="F5">
-        <v>8.9</v>
+        <v>19.54</v>
       </c>
       <c r="G5">
-        <v>14.39</v>
+        <v>10.59</v>
       </c>
       <c r="H5">
-        <v>9.520000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I5">
-        <v>7.489999999999999</v>
+        <v>10.58</v>
       </c>
       <c r="J5">
-        <v>82.98999999999999</v>
+        <v>80.13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>13.84</v>
+        <v>12.97</v>
       </c>
       <c r="C6">
-        <v>12.99</v>
+        <v>12.2</v>
       </c>
       <c r="D6">
-        <v>13.72</v>
+        <v>6.88</v>
       </c>
       <c r="E6">
-        <v>17.46</v>
+        <v>18.59</v>
       </c>
       <c r="F6">
-        <v>8.68</v>
+        <v>13.61</v>
       </c>
       <c r="G6">
-        <v>14.07</v>
+        <v>7.66</v>
       </c>
       <c r="H6">
-        <v>10.47</v>
+        <v>15.06</v>
       </c>
       <c r="I6">
-        <v>8.77</v>
+        <v>13.03</v>
       </c>
       <c r="J6">
-        <v>80.75999999999999</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>9.82</v>
+        <v>10.86</v>
       </c>
       <c r="C7">
-        <v>11.04</v>
+        <v>12.58</v>
       </c>
       <c r="D7">
-        <v>14.18</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="E7">
-        <v>7.08</v>
+        <v>13.67</v>
       </c>
       <c r="F7">
-        <v>17.43</v>
+        <v>19.5</v>
       </c>
       <c r="G7">
-        <v>14.27</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="H7">
-        <v>11.26</v>
+        <v>14.02</v>
       </c>
       <c r="I7">
-        <v>14.92</v>
+        <v>15.44</v>
       </c>
       <c r="J7">
-        <v>73.81999999999999</v>
+        <v>70.54000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1374,31 +1380,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="C8">
-        <v>7.84</v>
+        <v>7.31</v>
       </c>
       <c r="D8">
-        <v>7.199999999999999</v>
+        <v>14.58</v>
       </c>
       <c r="E8">
-        <v>9.049999999999999</v>
+        <v>15.87</v>
       </c>
       <c r="F8">
-        <v>18.35</v>
+        <v>6.52</v>
       </c>
       <c r="G8">
-        <v>12.43</v>
+        <v>16.6</v>
       </c>
       <c r="H8">
-        <v>18.39</v>
+        <v>16.29</v>
       </c>
       <c r="I8">
-        <v>22.44</v>
+        <v>13.43</v>
       </c>
       <c r="J8">
-        <v>59.17</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1406,31 +1412,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="C9">
-        <v>3.61</v>
+        <v>3.11</v>
       </c>
       <c r="D9">
-        <v>3.34</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E9">
-        <v>8.290000000000001</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="F9">
-        <v>12.33</v>
+        <v>9.74</v>
       </c>
       <c r="G9">
-        <v>14.42</v>
+        <v>22.86</v>
       </c>
       <c r="H9">
-        <v>26.56</v>
+        <v>20.05</v>
       </c>
       <c r="I9">
-        <v>29.91</v>
+        <v>26.9</v>
       </c>
       <c r="J9">
-        <v>43.53</v>
+        <v>53.05</v>
       </c>
     </row>
   </sheetData>
@@ -1468,16 +1474,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1488,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1497,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -1508,16 +1514,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1528,19 +1534,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1554,13 +1560,13 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1574,13 +1580,13 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1588,19 +1594,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1608,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1630,185 +1636,200 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>15</v>
       </c>
       <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>-2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
       <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>-2</v>
       </c>
       <c r="C5">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,11 +1860,14 @@
       <c r="J6">
         <v>-2</v>
       </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1874,78 +1898,87 @@
       <c r="J7">
         <v>-14</v>
       </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>-9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-4</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D8">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="E8">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="F8">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="G8">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="H8">
-        <v>-16</v>
+        <v>-32</v>
       </c>
       <c r="I8">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="J8">
-        <v>-18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-21</v>
+      </c>
+      <c r="K8">
+        <v>-14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>-4</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D9">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="E9">
+        <v>-12</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
+        <v>-20</v>
+      </c>
+      <c r="H9">
+        <v>-16</v>
+      </c>
+      <c r="I9">
+        <v>-22</v>
+      </c>
+      <c r="J9">
         <v>-18</v>
       </c>
-      <c r="F9">
-        <v>-16</v>
-      </c>
-      <c r="G9">
-        <v>-21</v>
-      </c>
-      <c r="H9">
-        <v>-32</v>
-      </c>
-      <c r="I9">
-        <v>-28</v>
-      </c>
-      <c r="J9">
-        <v>-21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1963,25 +1996,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2268,32 +2301,6 @@
       </c>
       <c r="H12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>-6</v>
-      </c>
-      <c r="F13">
-        <v>-12</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,37 +136,40 @@
     <t>gianni alessio</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>jack meehan</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -618,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -630,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -647,22 +653,22 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -676,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -691,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -705,22 +711,22 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -731,25 +737,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -763,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -789,22 +795,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -827,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -868,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -882,13 +888,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.875</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -910,13 +916,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.625</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -924,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.25</v>
+        <v>5.625</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -938,13 +944,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.375</v>
+        <v>5.875</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -952,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.375</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -966,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.625</v>
+        <v>6.25</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1010,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.875</v>
+        <v>7.375</v>
       </c>
       <c r="D2">
-        <v>-1.125</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1027,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6.375</v>
+        <v>7.25</v>
       </c>
       <c r="D3">
-        <v>-0.625</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1044,10 +1050,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.625</v>
+        <v>6.375</v>
       </c>
       <c r="D4">
-        <v>-1.375</v>
+        <v>-1.625</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1061,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.375</v>
+        <v>5.625</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1075,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5.125</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1092,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>4.625</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1109,13 +1115,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.125</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1129,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.625</v>
+        <v>3.125</v>
       </c>
       <c r="D9">
-        <v>1.625</v>
+        <v>1.125</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1188,31 +1194,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>19.45</v>
+        <v>21.14</v>
       </c>
       <c r="C2">
-        <v>17.88</v>
+        <v>12.31</v>
       </c>
       <c r="D2">
-        <v>23.51</v>
+        <v>13.65</v>
       </c>
       <c r="E2">
-        <v>10.58</v>
+        <v>25.16</v>
       </c>
       <c r="F2">
-        <v>9.07</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="G2">
-        <v>11.28</v>
+        <v>4.8</v>
       </c>
       <c r="H2">
-        <v>4.81</v>
+        <v>10.21</v>
       </c>
       <c r="I2">
-        <v>3.42</v>
+        <v>6.16</v>
       </c>
       <c r="J2">
-        <v>91.77000000000001</v>
+        <v>83.63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1220,31 +1226,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>16.86</v>
+        <v>13.98</v>
       </c>
       <c r="C3">
-        <v>18.49</v>
+        <v>18.14</v>
       </c>
       <c r="D3">
-        <v>18.44</v>
+        <v>7.55</v>
       </c>
       <c r="E3">
-        <v>6.31</v>
+        <v>23.9</v>
       </c>
       <c r="F3">
-        <v>13.9</v>
+        <v>15.3</v>
       </c>
       <c r="G3">
-        <v>13.27</v>
+        <v>4.06</v>
       </c>
       <c r="H3">
-        <v>5.970000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="I3">
-        <v>6.76</v>
+        <v>6.92</v>
       </c>
       <c r="J3">
-        <v>87.27000000000001</v>
+        <v>82.93000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1252,95 +1258,95 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.59</v>
+        <v>13.45</v>
       </c>
       <c r="C4">
-        <v>10.83</v>
+        <v>16.16</v>
       </c>
       <c r="D4">
-        <v>10.8</v>
+        <v>6.69</v>
       </c>
       <c r="E4">
-        <v>20.62</v>
+        <v>6.17</v>
       </c>
       <c r="F4">
-        <v>8.119999999999999</v>
+        <v>24.66</v>
       </c>
       <c r="G4">
-        <v>10.09</v>
+        <v>12.97</v>
       </c>
       <c r="H4">
-        <v>14.51</v>
+        <v>7.04</v>
       </c>
       <c r="I4">
-        <v>10.44</v>
+        <v>12.86</v>
       </c>
       <c r="J4">
-        <v>75.05000000000001</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>13.93</v>
+        <v>12.99</v>
       </c>
       <c r="C5">
-        <v>17.6</v>
+        <v>10.84</v>
       </c>
       <c r="D5">
-        <v>10.96</v>
+        <v>22.17</v>
       </c>
       <c r="E5">
-        <v>7.51</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F5">
-        <v>19.54</v>
+        <v>3.61</v>
       </c>
       <c r="G5">
-        <v>10.59</v>
+        <v>16.65</v>
       </c>
       <c r="H5">
-        <v>9.289999999999999</v>
+        <v>13.83</v>
       </c>
       <c r="I5">
-        <v>10.58</v>
+        <v>11.19</v>
       </c>
       <c r="J5">
-        <v>80.13</v>
+        <v>74.98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12.97</v>
+        <v>12.03</v>
       </c>
       <c r="C6">
-        <v>12.2</v>
+        <v>6.58</v>
       </c>
       <c r="D6">
-        <v>6.88</v>
+        <v>19.8</v>
       </c>
       <c r="E6">
-        <v>18.59</v>
+        <v>16.51</v>
       </c>
       <c r="F6">
-        <v>13.61</v>
+        <v>2.91</v>
       </c>
       <c r="G6">
-        <v>7.66</v>
+        <v>11.85</v>
       </c>
       <c r="H6">
-        <v>15.06</v>
+        <v>17.08</v>
       </c>
       <c r="I6">
-        <v>13.03</v>
+        <v>13.24</v>
       </c>
       <c r="J6">
-        <v>71.91</v>
+        <v>69.67999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1348,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>10.86</v>
+        <v>11.98</v>
       </c>
       <c r="C7">
-        <v>12.58</v>
+        <v>16.06</v>
       </c>
       <c r="D7">
-        <v>6.279999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="E7">
-        <v>13.67</v>
+        <v>2.46</v>
       </c>
       <c r="F7">
-        <v>19.5</v>
+        <v>16.67</v>
       </c>
       <c r="G7">
-        <v>7.649999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="H7">
-        <v>14.02</v>
+        <v>7.27</v>
       </c>
       <c r="I7">
-        <v>15.44</v>
+        <v>14.1</v>
       </c>
       <c r="J7">
-        <v>70.54000000000001</v>
+        <v>78.63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1380,31 +1386,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.4</v>
+        <v>10.33</v>
       </c>
       <c r="C8">
-        <v>7.31</v>
+        <v>14.73</v>
       </c>
       <c r="D8">
-        <v>14.58</v>
+        <v>16.52</v>
       </c>
       <c r="E8">
-        <v>15.87</v>
+        <v>3.81</v>
       </c>
       <c r="F8">
-        <v>6.52</v>
+        <v>8.83</v>
       </c>
       <c r="G8">
-        <v>16.6</v>
+        <v>21.57</v>
       </c>
       <c r="H8">
-        <v>16.29</v>
+        <v>10.58</v>
       </c>
       <c r="I8">
-        <v>13.43</v>
+        <v>13.63</v>
       </c>
       <c r="J8">
-        <v>70.28</v>
+        <v>75.78999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,31 +1418,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.94</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="C9">
-        <v>3.11</v>
+        <v>5.18</v>
       </c>
       <c r="D9">
-        <v>8.550000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="E9">
-        <v>6.850000000000001</v>
+        <v>13.27</v>
       </c>
       <c r="F9">
-        <v>9.74</v>
+        <v>21.45</v>
       </c>
       <c r="G9">
-        <v>22.86</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H9">
-        <v>20.05</v>
+        <v>23.84</v>
       </c>
       <c r="I9">
-        <v>26.9</v>
+        <v>21.9</v>
       </c>
       <c r="J9">
-        <v>53.05</v>
+        <v>54.26</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1486,10 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1500,10 +1506,10 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -1520,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1540,7 +1546,7 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1554,16 +1560,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1574,13 +1580,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1594,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -1620,13 +1626,13 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1636,48 +1642,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1711,11 +1720,14 @@
       <c r="K2">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1749,11 +1761,14 @@
       <c r="K3">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1787,11 +1802,14 @@
       <c r="K4">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1825,125 +1843,137 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-15</v>
+      </c>
+      <c r="E6">
+        <v>-18</v>
+      </c>
+      <c r="F6">
+        <v>-16</v>
+      </c>
+      <c r="G6">
+        <v>-21</v>
+      </c>
+      <c r="H6">
+        <v>-32</v>
+      </c>
+      <c r="I6">
+        <v>-28</v>
+      </c>
+      <c r="J6">
+        <v>-21</v>
+      </c>
+      <c r="K6">
+        <v>-14</v>
+      </c>
+      <c r="L6">
+        <v>-9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-3</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-2</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-4</v>
       </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>-14</v>
-      </c>
-      <c r="D7">
-        <v>-21</v>
-      </c>
-      <c r="E7">
-        <v>-24</v>
-      </c>
-      <c r="F7">
-        <v>-21</v>
-      </c>
-      <c r="G7">
-        <v>-16</v>
-      </c>
-      <c r="H7">
-        <v>-14</v>
-      </c>
-      <c r="I7">
-        <v>-12</v>
-      </c>
-      <c r="J7">
-        <v>-14</v>
-      </c>
-      <c r="K7">
-        <v>-9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="D8">
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="E8">
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="F8">
+        <v>-21</v>
+      </c>
+      <c r="G8">
         <v>-16</v>
       </c>
-      <c r="G8">
-        <v>-21</v>
-      </c>
       <c r="H8">
-        <v>-32</v>
+        <v>-14</v>
       </c>
       <c r="I8">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="J8">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="K8">
+        <v>-9</v>
+      </c>
+      <c r="L8">
         <v>-14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1977,8 +2007,11 @@
       <c r="K9">
         <v>-18</v>
       </c>
-      <c r="L9" t="s">
-        <v>44</v>
+      <c r="L9">
+        <v>-21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,25 +2029,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2074,25 +2107,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2103,22 +2136,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2126,25 +2159,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>-21</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2152,25 +2185,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2178,19 +2211,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -2204,25 +2237,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
       <c r="E9">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2230,25 +2263,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>-21</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2256,51 +2289,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
       <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11">
         <v>-21</v>
       </c>
-      <c r="F11">
-        <v>-15</v>
-      </c>
       <c r="G11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,42 +136,33 @@
     <t>gianni alessio</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>jack meehan</t>
   </si>
   <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -203,6 +194,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,19 +618,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -650,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -665,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -688,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -711,22 +705,22 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -737,25 +731,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -763,28 +757,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -792,28 +786,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -824,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -877,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>5.125</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -891,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -902,13 +896,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -916,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.625</v>
+        <v>6.125</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -930,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.625</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -947,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.875</v>
+        <v>6.25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -961,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -975,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.875</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.375</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1050,13 +1044,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6.375</v>
+        <v>7.125</v>
       </c>
       <c r="D4">
-        <v>-1.625</v>
+        <v>-1.875</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1067,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.625</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1081,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
       <c r="D6">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1098,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.625</v>
+        <v>5.375</v>
       </c>
       <c r="D7">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1118,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5.125</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1135,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.125</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1191,130 +1185,130 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14</v>
+        <v>19.49</v>
       </c>
       <c r="C2">
-        <v>12.31</v>
+        <v>6.78</v>
       </c>
       <c r="D2">
-        <v>13.65</v>
+        <v>4.94</v>
       </c>
       <c r="E2">
-        <v>25.16</v>
+        <v>30.73</v>
       </c>
       <c r="F2">
-        <v>6.569999999999999</v>
+        <v>14.05</v>
       </c>
       <c r="G2">
-        <v>4.8</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="H2">
-        <v>10.21</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="I2">
-        <v>6.16</v>
+        <v>14.57</v>
       </c>
       <c r="J2">
-        <v>83.63</v>
+        <v>76.97999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>13.98</v>
+        <v>17.63</v>
       </c>
       <c r="C3">
-        <v>18.14</v>
+        <v>7.44</v>
       </c>
       <c r="D3">
-        <v>7.55</v>
+        <v>26.75</v>
       </c>
       <c r="E3">
-        <v>23.9</v>
+        <v>13.64</v>
       </c>
       <c r="F3">
-        <v>15.3</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="G3">
-        <v>4.06</v>
+        <v>4.84</v>
       </c>
       <c r="H3">
-        <v>10.15</v>
+        <v>19.02</v>
       </c>
       <c r="I3">
-        <v>6.92</v>
+        <v>9.9</v>
       </c>
       <c r="J3">
-        <v>82.93000000000001</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>13.45</v>
+        <v>16.98</v>
       </c>
       <c r="C4">
-        <v>16.16</v>
+        <v>11.65</v>
       </c>
       <c r="D4">
-        <v>6.69</v>
+        <v>1.72</v>
       </c>
       <c r="E4">
-        <v>6.17</v>
+        <v>16.77</v>
       </c>
       <c r="F4">
-        <v>24.66</v>
+        <v>29.17</v>
       </c>
       <c r="G4">
-        <v>12.97</v>
+        <v>3.87</v>
       </c>
       <c r="H4">
-        <v>7.04</v>
+        <v>4.63</v>
       </c>
       <c r="I4">
-        <v>12.86</v>
+        <v>15.21</v>
       </c>
       <c r="J4">
-        <v>80.09999999999999</v>
+        <v>80.16000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>12.99</v>
+        <v>16.2</v>
       </c>
       <c r="C5">
-        <v>10.84</v>
+        <v>2.85</v>
       </c>
       <c r="D5">
-        <v>22.17</v>
+        <v>19.28</v>
       </c>
       <c r="E5">
-        <v>8.720000000000001</v>
+        <v>25.66</v>
       </c>
       <c r="F5">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
       <c r="G5">
-        <v>16.65</v>
+        <v>2.24</v>
       </c>
       <c r="H5">
-        <v>13.83</v>
+        <v>15.2</v>
       </c>
       <c r="I5">
-        <v>11.19</v>
+        <v>14.92</v>
       </c>
       <c r="J5">
-        <v>74.98</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1322,127 +1316,127 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.03</v>
+        <v>13.03</v>
       </c>
       <c r="C6">
-        <v>6.58</v>
+        <v>16.53</v>
       </c>
       <c r="D6">
-        <v>19.8</v>
+        <v>3.49</v>
       </c>
       <c r="E6">
-        <v>16.51</v>
+        <v>5.71</v>
       </c>
       <c r="F6">
-        <v>2.91</v>
+        <v>27.17</v>
       </c>
       <c r="G6">
-        <v>11.85</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>17.08</v>
+        <v>2.78</v>
       </c>
       <c r="I6">
-        <v>13.24</v>
+        <v>15.29</v>
       </c>
       <c r="J6">
-        <v>69.67999999999999</v>
+        <v>81.93000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>11.98</v>
+        <v>8.98</v>
       </c>
       <c r="C7">
-        <v>16.06</v>
+        <v>24.16</v>
       </c>
       <c r="D7">
-        <v>11.4</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="E7">
-        <v>2.46</v>
+        <v>1.37</v>
       </c>
       <c r="F7">
-        <v>16.67</v>
+        <v>15.59</v>
       </c>
       <c r="G7">
-        <v>20.06</v>
+        <v>23.41</v>
       </c>
       <c r="H7">
-        <v>7.27</v>
+        <v>5.21</v>
       </c>
       <c r="I7">
-        <v>14.1</v>
+        <v>11.71</v>
       </c>
       <c r="J7">
-        <v>78.63</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>10.33</v>
+        <v>4.18</v>
       </c>
       <c r="C8">
-        <v>14.73</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="D8">
-        <v>16.52</v>
+        <v>16.03</v>
       </c>
       <c r="E8">
-        <v>3.81</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="F8">
-        <v>8.83</v>
+        <v>2.4</v>
       </c>
       <c r="G8">
-        <v>21.57</v>
+        <v>24.74</v>
       </c>
       <c r="H8">
-        <v>10.58</v>
+        <v>32.08</v>
       </c>
       <c r="I8">
-        <v>13.63</v>
+        <v>6.58</v>
       </c>
       <c r="J8">
-        <v>75.78999999999999</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>4.100000000000001</v>
+        <v>3.51</v>
       </c>
       <c r="C9">
-        <v>5.18</v>
+        <v>20.71</v>
       </c>
       <c r="D9">
-        <v>2.22</v>
+        <v>18.22</v>
       </c>
       <c r="E9">
-        <v>13.27</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>21.45</v>
+        <v>7.19</v>
       </c>
       <c r="G9">
-        <v>8.039999999999999</v>
+        <v>23.91</v>
       </c>
       <c r="H9">
-        <v>23.84</v>
+        <v>12.63</v>
       </c>
       <c r="I9">
-        <v>21.9</v>
+        <v>11.82</v>
       </c>
       <c r="J9">
-        <v>54.26</v>
+        <v>75.55</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +1503,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1526,13 +1520,13 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1546,13 +1540,13 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1560,19 +1554,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1580,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -1592,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1606,13 +1600,13 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1626,13 +1620,13 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1642,51 +1636,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1723,11 +1720,14 @@
       <c r="L2">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1764,11 +1764,14 @@
       <c r="L3">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1805,11 +1808,14 @@
       <c r="L4">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1846,93 +1852,102 @@
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>-6</v>
+      </c>
+      <c r="J6">
+        <v>-2</v>
+      </c>
+      <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
+      </c>
+      <c r="M6">
+        <v>-8</v>
+      </c>
+      <c r="N6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-15</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-18</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-16</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-21</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-32</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-28</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-21</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-14</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-9</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7">
+        <v>-10</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7">
-        <v>-10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1969,11 +1984,14 @@
       <c r="L8">
         <v>-14</v>
       </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2010,8 +2028,11 @@
       <c r="L9">
         <v>-21</v>
       </c>
-      <c r="M9" t="s">
-        <v>49</v>
+      <c r="M9">
+        <v>-22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2029,25 +2050,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2107,25 +2128,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="F4">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2133,25 +2154,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2162,22 +2183,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2185,25 +2206,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>-21</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2211,25 +2232,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2237,19 +2258,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
       <c r="E9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -2263,25 +2284,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2289,25 +2310,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="F11">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="70">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,28 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,31 +136,40 @@
     <t>gianni alessio</t>
   </si>
   <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -197,6 +206,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -618,22 +630,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -641,28 +653,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -670,28 +682,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -699,28 +711,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -728,28 +740,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -757,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -775,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -795,19 +807,19 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -815,28 +827,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -885,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.375</v>
+        <v>5.875</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -899,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>5.875</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -913,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.125</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -924,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -938,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.25</v>
+        <v>6.625</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -955,10 +967,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.25</v>
+        <v>7.125</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -969,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.875</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1010,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1024,16 +1036,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>7.25</v>
+        <v>7.375</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>-2.625</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1041,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>7.125</v>
+        <v>7.25</v>
       </c>
       <c r="D4">
-        <v>-1.875</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1061,13 +1073,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1075,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.625</v>
+        <v>6.125</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1092,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.375</v>
+        <v>5.875</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1109,13 +1121,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1129,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.375</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1185,66 +1197,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>19.49</v>
+        <v>33.15</v>
       </c>
       <c r="C2">
-        <v>6.78</v>
+        <v>7.73</v>
       </c>
       <c r="D2">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>30.73</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.05</v>
+        <v>18.77</v>
       </c>
       <c r="G2">
-        <v>0.9900000000000001</v>
+        <v>40.35</v>
       </c>
       <c r="H2">
-        <v>8.450000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.57</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>76.97999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63</v>
+        <v>26.5</v>
       </c>
       <c r="C3">
-        <v>7.44</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>26.75</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7799999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="G3">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>19.02</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>71.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1252,159 +1264,159 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>16.98</v>
+        <v>24.22</v>
       </c>
       <c r="C4">
-        <v>11.65</v>
+        <v>21.47</v>
       </c>
       <c r="D4">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="E4">
-        <v>16.77</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>29.17</v>
+        <v>5.77</v>
       </c>
       <c r="G4">
-        <v>3.87</v>
+        <v>30.45</v>
       </c>
       <c r="H4">
-        <v>4.63</v>
+        <v>16.13</v>
       </c>
       <c r="I4">
-        <v>15.21</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>80.16000000000001</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>16.2</v>
+        <v>11.77</v>
       </c>
       <c r="C5">
-        <v>2.85</v>
+        <v>27.85</v>
       </c>
       <c r="D5">
-        <v>19.28</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E5">
-        <v>25.66</v>
+        <v>0.22</v>
       </c>
       <c r="F5">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="G5">
-        <v>2.24</v>
+        <v>19.21</v>
       </c>
       <c r="H5">
-        <v>15.2</v>
+        <v>26.82</v>
       </c>
       <c r="I5">
-        <v>14.92</v>
+        <v>4.36</v>
       </c>
       <c r="J5">
-        <v>69.88</v>
+        <v>68.82000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>13.03</v>
+        <v>4.36</v>
       </c>
       <c r="C6">
-        <v>16.53</v>
+        <v>26.35</v>
       </c>
       <c r="D6">
-        <v>3.49</v>
+        <v>18.51</v>
       </c>
       <c r="E6">
-        <v>5.71</v>
+        <v>1.66</v>
       </c>
       <c r="F6">
-        <v>27.17</v>
+        <v>0.22</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="H6">
-        <v>2.78</v>
+        <v>28.55</v>
       </c>
       <c r="I6">
-        <v>15.29</v>
+        <v>12.24</v>
       </c>
       <c r="J6">
-        <v>81.93000000000001</v>
+        <v>59.20999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>8.98</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>24.16</v>
+        <v>16.6</v>
       </c>
       <c r="D7">
-        <v>9.569999999999999</v>
+        <v>35.43</v>
       </c>
       <c r="E7">
-        <v>1.37</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F7">
-        <v>15.59</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>23.41</v>
+        <v>1.88</v>
       </c>
       <c r="H7">
-        <v>5.21</v>
+        <v>18.57</v>
       </c>
       <c r="I7">
-        <v>11.71</v>
+        <v>19.47</v>
       </c>
       <c r="J7">
-        <v>83.08</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>9.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16.03</v>
+        <v>36.07</v>
       </c>
       <c r="E8">
-        <v>4.109999999999999</v>
+        <v>23.56</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>24.74</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>32.08</v>
+        <v>9.93</v>
       </c>
       <c r="I8">
-        <v>6.58</v>
+        <v>30.44</v>
       </c>
       <c r="J8">
-        <v>61.34</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,31 +1424,31 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>20.71</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.01</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F9">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>12.63</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11.82</v>
+        <v>33.48999999999999</v>
       </c>
       <c r="J9">
-        <v>75.55</v>
+        <v>66.51000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1492,10 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
@@ -1500,13 +1512,13 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1520,13 +1532,13 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1540,13 +1552,13 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1554,19 +1566,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1574,19 +1586,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1594,19 +1606,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1620,13 +1632,13 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1636,54 +1648,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1723,11 +1738,14 @@
       <c r="M2">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1767,11 +1785,14 @@
       <c r="M3">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1811,11 +1832,14 @@
       <c r="M4">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1855,143 +1879,155 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>-4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-14</v>
+      </c>
+      <c r="D6">
+        <v>-21</v>
+      </c>
+      <c r="E6">
+        <v>-24</v>
+      </c>
+      <c r="F6">
+        <v>-21</v>
+      </c>
+      <c r="G6">
+        <v>-16</v>
+      </c>
+      <c r="H6">
+        <v>-14</v>
+      </c>
+      <c r="I6">
+        <v>-12</v>
+      </c>
+      <c r="J6">
+        <v>-14</v>
+      </c>
+      <c r="K6">
+        <v>-9</v>
+      </c>
+      <c r="L6">
+        <v>-14</v>
+      </c>
+      <c r="M6">
+        <v>-12</v>
+      </c>
+      <c r="N6">
+        <v>-4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-3</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-2</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-4</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-10</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-8</v>
       </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="N7">
+        <v>-9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-15</v>
-      </c>
-      <c r="E7">
-        <v>-18</v>
-      </c>
-      <c r="F7">
-        <v>-16</v>
-      </c>
-      <c r="G7">
-        <v>-21</v>
-      </c>
-      <c r="H7">
-        <v>-32</v>
-      </c>
-      <c r="I7">
-        <v>-28</v>
-      </c>
-      <c r="J7">
-        <v>-21</v>
-      </c>
-      <c r="K7">
-        <v>-14</v>
-      </c>
-      <c r="L7">
-        <v>-9</v>
-      </c>
-      <c r="M7">
-        <v>-10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B8">
         <v>-4</v>
       </c>
       <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-15</v>
+      </c>
+      <c r="E8">
+        <v>-18</v>
+      </c>
+      <c r="F8">
+        <v>-16</v>
+      </c>
+      <c r="G8">
+        <v>-21</v>
+      </c>
+      <c r="H8">
+        <v>-32</v>
+      </c>
+      <c r="I8">
+        <v>-28</v>
+      </c>
+      <c r="J8">
+        <v>-21</v>
+      </c>
+      <c r="K8">
         <v>-14</v>
       </c>
-      <c r="D8">
-        <v>-21</v>
-      </c>
-      <c r="E8">
-        <v>-24</v>
-      </c>
-      <c r="F8">
-        <v>-21</v>
-      </c>
-      <c r="G8">
-        <v>-16</v>
-      </c>
-      <c r="H8">
-        <v>-14</v>
-      </c>
-      <c r="I8">
-        <v>-12</v>
-      </c>
-      <c r="J8">
-        <v>-14</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
         <v>-9</v>
       </c>
-      <c r="L8">
-        <v>-14</v>
-      </c>
       <c r="M8">
-        <v>-12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>-9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,8 +2067,11 @@
       <c r="M9">
         <v>-22</v>
       </c>
-      <c r="N9" t="s">
-        <v>46</v>
+      <c r="N9">
+        <v>-18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2050,25 +2089,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2128,25 +2167,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>-4</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2154,25 +2193,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="F5">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2180,25 +2219,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2209,22 +2248,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2232,25 +2271,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>-21</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2258,25 +2297,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2284,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -2310,25 +2349,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="71">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,31 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,45 +136,42 @@
     <t>James Breen</t>
   </si>
   <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>gianni alessio</t>
   </si>
   <si>
-    <t>jack meehan</t>
+    <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Zacierka </t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>0</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -630,22 +633,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -653,28 +656,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -682,28 +685,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -711,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -740,16 +743,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -758,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -769,16 +772,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -787,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -798,28 +801,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -827,28 +830,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -866,13 +869,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -880,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -894,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.875</v>
+        <v>6.125</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -908,13 +911,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.875</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -925,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.875</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -939,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -950,13 +953,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.625</v>
+        <v>7.375</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -964,13 +967,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.125</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -981,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>8.625</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1002,16 +1005,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1022,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>8.375</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1036,16 +1039,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>7.375</v>
+        <v>7.75</v>
       </c>
       <c r="D3">
-        <v>-2.625</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1053,16 +1056,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>7.25</v>
+        <v>7.625</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>-3.375</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1070,16 +1073,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1090,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>6.125</v>
+        <v>6.875</v>
       </c>
       <c r="D6">
-        <v>0.125</v>
+        <v>-0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1104,16 +1107,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.875</v>
+        <v>6.75</v>
       </c>
       <c r="D7">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1121,13 +1124,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>5.875</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1141,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.375</v>
+        <v>5.25</v>
       </c>
       <c r="D9">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1165,45 +1168,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>33.15</v>
+        <v>32.51</v>
       </c>
       <c r="C2">
-        <v>7.73</v>
+        <v>10.15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1212,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.77</v>
+        <v>20.92</v>
       </c>
       <c r="G2">
-        <v>40.35</v>
+        <v>36.42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1232,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.5</v>
+        <v>31.07</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>73.5</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1264,63 +1267,63 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>24.22</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>21.47</v>
+        <v>21.12</v>
       </c>
       <c r="D4">
-        <v>1.96</v>
+        <v>2.71</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.77</v>
+        <v>7.44</v>
       </c>
       <c r="G4">
-        <v>30.45</v>
+        <v>32.31</v>
       </c>
       <c r="H4">
-        <v>16.13</v>
+        <v>15.42</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>83.87</v>
+        <v>84.58000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>11.77</v>
+        <v>11.37</v>
       </c>
       <c r="C5">
-        <v>27.85</v>
+        <v>27.87</v>
       </c>
       <c r="D5">
-        <v>8.029999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="E5">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
-        <v>1.74</v>
+        <v>2.31</v>
       </c>
       <c r="G5">
-        <v>19.21</v>
+        <v>20.05</v>
       </c>
       <c r="H5">
-        <v>26.82</v>
+        <v>25.44</v>
       </c>
       <c r="I5">
-        <v>4.36</v>
+        <v>4.05</v>
       </c>
       <c r="J5">
-        <v>68.82000000000001</v>
+        <v>70.51000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1328,68 +1331,68 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4.36</v>
+        <v>4.05</v>
       </c>
       <c r="C6">
-        <v>26.35</v>
+        <v>25.81</v>
       </c>
       <c r="D6">
-        <v>18.51</v>
+        <v>21.16</v>
       </c>
       <c r="E6">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="F6">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="G6">
-        <v>8.110000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="H6">
-        <v>28.55</v>
+        <v>26.76</v>
       </c>
       <c r="I6">
-        <v>12.24</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>59.20999999999999</v>
+        <v>62.23999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>16.6</v>
+        <v>15.05</v>
       </c>
       <c r="D7">
-        <v>35.43</v>
+        <v>33.16</v>
       </c>
       <c r="E7">
-        <v>8.050000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="H7">
-        <v>18.57</v>
+        <v>21.34</v>
       </c>
       <c r="I7">
-        <v>19.47</v>
+        <v>19.41</v>
       </c>
       <c r="J7">
-        <v>61.96</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1398,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>36.07</v>
+        <v>34.46</v>
       </c>
       <c r="E8">
-        <v>23.56</v>
+        <v>23.92</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1410,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.93</v>
+        <v>11.04</v>
       </c>
       <c r="I8">
-        <v>30.44</v>
+        <v>30.58</v>
       </c>
       <c r="J8">
-        <v>59.63</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>66.51000000000001</v>
+        <v>65.03999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1445,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.48999999999999</v>
+        <v>34.96</v>
       </c>
       <c r="J9">
-        <v>66.51000000000001</v>
+        <v>65.03999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1466,19 +1469,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1489,16 +1492,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1509,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1529,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1546,16 +1549,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1566,16 +1569,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1586,16 +1589,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1606,16 +1609,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1626,16 +1629,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1648,13 +1651,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1695,10 +1698,13 @@
         <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1741,11 +1747,14 @@
       <c r="N2">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1788,11 +1797,14 @@
       <c r="N3">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1835,242 +1847,260 @@
       <c r="N4">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>-21</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>-24</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>-21</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>-16</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>-14</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>-12</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>-14</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="N5">
         <v>-4</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>-4</v>
       </c>
       <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-15</v>
+      </c>
+      <c r="E6">
+        <v>-18</v>
+      </c>
+      <c r="F6">
+        <v>-16</v>
+      </c>
+      <c r="G6">
+        <v>-21</v>
+      </c>
+      <c r="H6">
+        <v>-32</v>
+      </c>
+      <c r="I6">
+        <v>-28</v>
+      </c>
+      <c r="J6">
+        <v>-21</v>
+      </c>
+      <c r="K6">
         <v>-14</v>
       </c>
-      <c r="D6">
-        <v>-21</v>
-      </c>
-      <c r="E6">
-        <v>-24</v>
-      </c>
-      <c r="F6">
-        <v>-21</v>
-      </c>
-      <c r="G6">
-        <v>-16</v>
-      </c>
-      <c r="H6">
-        <v>-14</v>
-      </c>
-      <c r="I6">
-        <v>-12</v>
-      </c>
-      <c r="J6">
-        <v>-14</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
         <v>-9</v>
       </c>
-      <c r="L6">
-        <v>-14</v>
-      </c>
       <c r="M6">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="N6">
-        <v>-4</v>
-      </c>
-      <c r="O6" t="s">
+        <v>-9</v>
+      </c>
+      <c r="O6">
+        <v>-3</v>
+      </c>
+      <c r="P6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-2</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
         <v>-4</v>
       </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7">
-        <v>-10</v>
-      </c>
-      <c r="M7">
-        <v>-8</v>
-      </c>
-      <c r="N7">
-        <v>-9</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>-12</v>
+      </c>
+      <c r="P7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>-4</v>
       </c>
       <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-9</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
+        <v>-12</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8">
+        <v>-16</v>
+      </c>
+      <c r="I8">
+        <v>-22</v>
+      </c>
+      <c r="J8">
+        <v>-18</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-21</v>
+      </c>
+      <c r="M8">
+        <v>-22</v>
+      </c>
+      <c r="N8">
+        <v>-18</v>
+      </c>
+      <c r="O8">
+        <v>-15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9">
         <v>-4</v>
       </c>
-      <c r="D8">
-        <v>-15</v>
-      </c>
-      <c r="E8">
-        <v>-18</v>
-      </c>
-      <c r="F8">
-        <v>-16</v>
-      </c>
-      <c r="G8">
-        <v>-21</v>
-      </c>
-      <c r="H8">
-        <v>-32</v>
-      </c>
-      <c r="I8">
-        <v>-28</v>
-      </c>
-      <c r="J8">
-        <v>-21</v>
-      </c>
-      <c r="K8">
-        <v>-14</v>
-      </c>
-      <c r="L8">
+      <c r="I9">
+        <v>-6</v>
+      </c>
+      <c r="J9">
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <v>-4</v>
+      </c>
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9">
+        <v>-8</v>
+      </c>
+      <c r="N9">
         <v>-9</v>
       </c>
-      <c r="M8">
-        <v>-10</v>
-      </c>
-      <c r="N8">
-        <v>-9</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-9</v>
-      </c>
-      <c r="E9">
-        <v>-12</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
+      <c r="O9">
         <v>-20</v>
       </c>
-      <c r="H9">
-        <v>-16</v>
-      </c>
-      <c r="I9">
-        <v>-22</v>
-      </c>
-      <c r="J9">
-        <v>-18</v>
-      </c>
-      <c r="K9">
-        <v>-18</v>
-      </c>
-      <c r="L9">
-        <v>-21</v>
-      </c>
-      <c r="M9">
-        <v>-22</v>
-      </c>
-      <c r="N9">
-        <v>-18</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2081,7 +2111,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2089,25 +2119,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2167,25 +2197,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>26</v>
+        <v>-3</v>
       </c>
       <c r="F4">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2193,25 +2223,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>-4</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2219,25 +2249,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2245,25 +2275,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2274,22 +2304,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2297,25 +2327,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2323,25 +2353,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2349,25 +2379,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,31 +46,34 @@
     <t>THE POOL</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,15 +136,15 @@
     <t>Derek Alcavage</t>
   </si>
   <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>James Breen</t>
   </si>
   <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t>gianni alessio</t>
   </si>
   <si>
@@ -151,27 +154,30 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓11</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,22 +642,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -656,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -685,28 +694,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -714,28 +723,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -743,28 +752,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -772,28 +781,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -801,28 +810,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -830,28 +839,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -869,13 +878,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -883,13 +892,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.375</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -897,13 +906,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6.125</v>
+        <v>6.625</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -911,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -928,10 +937,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.875</v>
+        <v>7.25</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -942,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7.375</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -953,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.375</v>
+        <v>8.125</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -967,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -984,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>8.625</v>
+        <v>9.125</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1005,16 +1014,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1025,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.375</v>
+        <v>9.125</v>
       </c>
       <c r="D2">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1042,13 +1051,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1059,13 +1068,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7.625</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>-3.375</v>
+        <v>-3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1073,16 +1082,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1090,16 +1099,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6.875</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1107,16 +1116,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.75</v>
+        <v>6.875</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1124,10 +1133,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.875</v>
+        <v>6.875</v>
       </c>
       <c r="D8">
         <v>0.875</v>
@@ -1144,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1168,34 +1177,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1203,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.51</v>
+        <v>32.14</v>
       </c>
       <c r="C2">
-        <v>10.15</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1215,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.92</v>
+        <v>21.32</v>
       </c>
       <c r="G2">
-        <v>36.42</v>
+        <v>36.82</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1235,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.07</v>
+        <v>31.04</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1247,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>68.93000000000001</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1267,31 +1276,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>21.48</v>
       </c>
       <c r="C4">
-        <v>21.12</v>
+        <v>20.57</v>
       </c>
       <c r="D4">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.44</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="G4">
-        <v>32.31</v>
+        <v>32.89</v>
       </c>
       <c r="H4">
-        <v>15.42</v>
+        <v>15.34</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>84.58000000000001</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1299,31 +1308,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>11.37</v>
+        <v>11.09</v>
       </c>
       <c r="C5">
-        <v>27.87</v>
+        <v>28.56</v>
       </c>
       <c r="D5">
-        <v>8.51</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="F5">
-        <v>2.31</v>
+        <v>1.86</v>
       </c>
       <c r="G5">
-        <v>20.05</v>
+        <v>19.52</v>
       </c>
       <c r="H5">
-        <v>25.44</v>
+        <v>25.81</v>
       </c>
       <c r="I5">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="J5">
-        <v>70.51000000000001</v>
+        <v>69.94000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1331,31 +1340,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="C6">
-        <v>25.81</v>
+        <v>26.3</v>
       </c>
       <c r="D6">
-        <v>21.16</v>
+        <v>21.09</v>
       </c>
       <c r="E6">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="G6">
-        <v>8.67</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="H6">
-        <v>26.76</v>
+        <v>26.99</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="J6">
-        <v>62.23999999999999</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1366,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>15.05</v>
+        <v>14.85</v>
       </c>
       <c r="D7">
-        <v>33.16</v>
+        <v>33.78</v>
       </c>
       <c r="E7">
         <v>8.49</v>
@@ -1378,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="H7">
-        <v>21.34</v>
+        <v>20.91</v>
       </c>
       <c r="I7">
-        <v>19.41</v>
+        <v>19.51</v>
       </c>
       <c r="J7">
-        <v>59.25</v>
+        <v>59.58000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1401,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>34.46</v>
+        <v>34.36</v>
       </c>
       <c r="E8">
-        <v>23.92</v>
+        <v>24.16</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1413,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11.04</v>
+        <v>10.95</v>
       </c>
       <c r="I8">
-        <v>30.58</v>
+        <v>30.53</v>
       </c>
       <c r="J8">
-        <v>58.38</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1436,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>65.03999999999999</v>
+        <v>64.89</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1448,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.96</v>
+        <v>35.11</v>
       </c>
       <c r="J9">
-        <v>65.03999999999999</v>
+        <v>64.89</v>
       </c>
     </row>
   </sheetData>
@@ -1469,19 +1478,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1492,16 +1501,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1512,16 +1521,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1529,19 +1538,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1549,19 +1558,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1569,19 +1578,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1592,16 +1601,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1612,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1632,16 +1641,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1651,60 +1660,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1750,11 +1762,14 @@
       <c r="O2">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1800,161 +1815,173 @@
       <c r="O3">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="C4">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="D4">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>-16</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>-14</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-4</v>
       </c>
       <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>-15</v>
+      </c>
+      <c r="E5">
+        <v>-18</v>
+      </c>
+      <c r="F5">
+        <v>-16</v>
+      </c>
+      <c r="G5">
+        <v>-21</v>
+      </c>
+      <c r="H5">
+        <v>-32</v>
+      </c>
+      <c r="I5">
+        <v>-28</v>
+      </c>
+      <c r="J5">
+        <v>-21</v>
+      </c>
+      <c r="K5">
         <v>-14</v>
       </c>
-      <c r="D5">
-        <v>-21</v>
-      </c>
-      <c r="E5">
-        <v>-24</v>
-      </c>
-      <c r="F5">
-        <v>-21</v>
-      </c>
-      <c r="G5">
-        <v>-16</v>
-      </c>
-      <c r="H5">
-        <v>-14</v>
-      </c>
-      <c r="I5">
-        <v>-12</v>
-      </c>
-      <c r="J5">
-        <v>-14</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
         <v>-9</v>
       </c>
-      <c r="L5">
-        <v>-14</v>
-      </c>
       <c r="M5">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="N5">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-3</v>
+      </c>
+      <c r="P5">
+        <v>-6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D6">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="E6">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>-28</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
         <v>-9</v>
       </c>
-      <c r="M6">
-        <v>-10</v>
-      </c>
-      <c r="N6">
-        <v>-9</v>
-      </c>
-      <c r="O6">
-        <v>-3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2000,11 +2027,14 @@
       <c r="O7">
         <v>-12</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>-14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2050,11 +2080,14 @@
       <c r="O8">
         <v>-15</v>
       </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,8 +2133,11 @@
       <c r="O9">
         <v>-20</v>
       </c>
-      <c r="P9" t="s">
-        <v>49</v>
+      <c r="P9">
+        <v>-15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2119,25 +2155,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2405,24 +2441,50 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-3</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/EBC League 2023.xlsx
+++ b/EBC League 2023.xlsx
@@ -2906,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,30 +2937,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -2986,27 +3006,45 @@
       <c r="E2" t="n">
         <v>-14</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1723.68</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Riley  Read option</t>
         </is>
@@ -3032,27 +3070,45 @@
       <c r="E3" t="n">
         <v>-9</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>THE POOL</t>
         </is>
@@ -3078,21 +3134,37 @@
       <c r="E4" t="n">
         <v>28</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1833.12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wut happened uh 🤷🏽‍♂️</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>80.66</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-6</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1746.34</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Inter Miami CF</t>
         </is>
@@ -3118,21 +3190,37 @@
       <c r="E5" t="n">
         <v>22</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1794.56</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bryson Stott Fan Club</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>134.16</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1771.38</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Bryson Stott Fan Club</t>
         </is>
@@ -3158,21 +3246,37 @@
       <c r="E6" t="n">
         <v>-10</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1723.68</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bryson Stott Fan Club</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>163.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1771.38</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Bryson Stott Fan Club</t>
         </is>
@@ -3198,21 +3302,37 @@
       <c r="E7" t="n">
         <v>-8</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Inter Miami CF</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>105.92</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>27</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1833.12</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>THE POOL</t>
         </is>
@@ -3238,21 +3358,37 @@
       <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1771.38</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>THE POOL</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>161.92</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-3</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1793.18</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>THE POOL</t>
         </is>
